--- a/final_metal_oxide_properties.xlsx
+++ b/final_metal_oxide_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleheen\Desktop\materials_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2D65F-ADA8-4DC5-A5E9-142801961945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809E9B6-F15C-44B8-80FE-5FE9039E7064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="3" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" firstSheet="1" activeTab="7" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="reduced_properties" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="oxide_pairs" sheetId="1" r:id="rId3"/>
     <sheet name="oxide_correlation" sheetId="4" r:id="rId4"/>
     <sheet name="bulk_vacancy" sheetId="5" r:id="rId5"/>
-    <sheet name="goxide_per_o_atom" sheetId="7" r:id="rId6"/>
+    <sheet name="goxide_mp" sheetId="7" r:id="rId6"/>
     <sheet name="surface_formation_energy" sheetId="6" r:id="rId7"/>
+    <sheet name="formation_energy_corr" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oxide_pairs!$A$1:$X$298</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="620">
   <si>
     <t>Ac2O3</t>
   </si>
@@ -1472,9 +1473,6 @@
     <t>coo</t>
   </si>
   <si>
-    <t>eu2o3</t>
-  </si>
-  <si>
     <t>fe2o3</t>
   </si>
   <si>
@@ -1724,9 +1722,6 @@
     <t>https://doi.org/10.1021/acsami.7b06139</t>
   </si>
   <si>
-    <t>Comp</t>
-  </si>
-  <si>
     <t>100, 111</t>
   </si>
   <si>
@@ -1908,6 +1903,21 @@
   </si>
   <si>
     <t>formation_per_O</t>
+  </si>
+  <si>
+    <t>oxides</t>
+  </si>
+  <si>
+    <t>formation_energy_per_o_atom (eV)</t>
+  </si>
+  <si>
+    <t>surface_formation_energy( eV/Å2)</t>
+  </si>
+  <si>
+    <t>surface_vacancy_formation_energy (eV)</t>
+  </si>
+  <si>
+    <t>bulk_vacancy_formation_energy (eV)</t>
   </si>
 </sst>
 </file>
@@ -2227,7 +2237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2638,6 +2648,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2698,43 +2747,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10241,73 +10260,73 @@
         <v>233</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="O1" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y1" s="17" t="s">
         <v>516</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>517</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>350</v>
@@ -10365,7 +10384,7 @@
         <v>-11.473286003005649</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -10385,7 +10404,7 @@
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z2" s="2">
         <v>1977</v>
@@ -10459,7 +10478,7 @@
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z3" s="2">
         <v>200</v>
@@ -10481,7 +10500,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -10532,7 +10551,7 @@
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>304</v>
@@ -10554,7 +10573,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -10621,7 +10640,7 @@
         <v>5</v>
       </c>
       <c r="Y5" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>304</v>
@@ -10643,7 +10662,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -10695,7 +10714,7 @@
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z6" s="2">
         <v>312</v>
@@ -10717,7 +10736,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -10769,7 +10788,7 @@
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z7" s="2">
         <v>315</v>
@@ -10791,7 +10810,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -10858,7 +10877,7 @@
         <v>5</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z8" s="2">
         <v>150</v>
@@ -10880,7 +10899,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -10932,7 +10951,7 @@
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z9" s="2">
         <v>450</v>
@@ -10988,7 +11007,7 @@
         <v>5.4619889101932939</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -11008,7 +11027,7 @@
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z10" s="2">
         <v>2000</v>
@@ -11082,7 +11101,7 @@
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z11" s="2">
         <v>1972</v>
@@ -11156,7 +11175,7 @@
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z12" s="2">
         <v>450</v>
@@ -11230,7 +11249,7 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z13" s="2">
         <v>2577</v>
@@ -11304,7 +11323,7 @@
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z14" s="2">
         <v>817</v>
@@ -11377,7 +11396,7 @@
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>304</v>
@@ -11450,7 +11469,7 @@
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z16" s="2">
         <v>305</v>
@@ -11524,7 +11543,7 @@
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z17" s="2">
         <v>2898</v>
@@ -11546,7 +11565,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -11598,7 +11617,7 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z18" s="2">
         <v>1430</v>
@@ -11671,7 +11690,7 @@
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>304</v>
@@ -11744,7 +11763,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>304</v>
@@ -11818,7 +11837,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z21" s="2">
         <v>2210</v>
@@ -11840,7 +11859,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
@@ -11891,7 +11910,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Z22" s="2" t="s">
         <v>304</v>
@@ -11913,7 +11932,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
@@ -11964,7 +11983,7 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>304</v>
@@ -11983,7 +12002,7 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
@@ -12034,7 +12053,7 @@
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z24" s="2" t="s">
         <v>304</v>
@@ -12120,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z25" s="2">
         <v>2400</v>
@@ -12189,7 +12208,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z26" s="2">
         <v>900</v>
@@ -12273,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z27" s="2">
         <v>1830</v>
@@ -12341,7 +12360,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z28" s="2" t="s">
         <v>304</v>
@@ -12426,7 +12445,7 @@
         <v>3</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z29" s="2">
         <v>2329</v>
@@ -12494,7 +12513,7 @@
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z30" s="2">
         <v>300</v>
@@ -12700,7 +12719,7 @@
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z33" s="2">
         <v>490</v>
@@ -12768,7 +12787,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z34" s="2">
         <v>590</v>
@@ -12836,7 +12855,7 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z35" s="2">
         <v>164</v>
@@ -12905,7 +12924,7 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z36" s="2">
         <v>432</v>
@@ -12974,7 +12993,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z37" s="2">
         <v>1235</v>
@@ -13042,7 +13061,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>304</v>
@@ -13127,7 +13146,7 @@
         <v>6</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z39" s="2">
         <v>1446</v>
@@ -13196,7 +13215,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z40" s="2">
         <v>2228</v>
@@ -13265,7 +13284,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z41" s="2">
         <v>2344</v>
@@ -13334,7 +13353,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z42" s="2">
         <v>2291</v>
@@ -13402,7 +13421,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z43" s="2" t="s">
         <v>304</v>
@@ -13487,7 +13506,7 @@
         <v>3</v>
       </c>
       <c r="Y44" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z44" s="2">
         <v>1565</v>
@@ -13556,7 +13575,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z45" s="2">
         <v>1597</v>
@@ -13625,7 +13644,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z46" s="2">
         <v>1377</v>
@@ -13694,7 +13713,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z47" s="2">
         <v>1806</v>
@@ -13763,7 +13782,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z48" s="2">
         <v>2339</v>
@@ -13832,7 +13851,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z49" s="2">
         <v>1115</v>
@@ -13901,7 +13920,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z50" s="2">
         <v>2774</v>
@@ -13970,7 +13989,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z51" s="2">
         <v>500</v>
@@ -14039,7 +14058,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z52" s="2">
         <v>2330</v>
@@ -14107,7 +14126,7 @@
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z53" s="2">
         <v>300</v>
@@ -14176,7 +14195,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z54" s="2">
         <v>1912</v>
@@ -14261,7 +14280,7 @@
         <v>4</v>
       </c>
       <c r="Y55" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z55" s="2">
         <v>1100</v>
@@ -14329,7 +14348,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>304</v>
@@ -14398,7 +14417,7 @@
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z57" s="2">
         <v>350</v>
@@ -14467,7 +14486,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z58" s="2">
         <v>490</v>
@@ -14536,7 +14555,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z59" s="2">
         <v>380</v>
@@ -14605,7 +14624,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z60" s="2">
         <v>2304</v>
@@ -14674,7 +14693,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z61" s="2">
         <v>1570</v>
@@ -14743,7 +14762,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z62" s="2">
         <v>195</v>
@@ -14812,7 +14831,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z63" s="2">
         <v>2427</v>
@@ -14897,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="Y64" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z64" s="2">
         <v>2825</v>
@@ -14966,7 +14985,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z65" s="2">
         <v>1080</v>
@@ -15051,7 +15070,7 @@
         <v>4</v>
       </c>
       <c r="Y66" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z66" s="2">
         <v>1567</v>
@@ -15120,7 +15139,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z67" s="2">
         <v>1839</v>
@@ -15189,7 +15208,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z68" s="2">
         <v>535</v>
@@ -15257,7 +15276,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z69" s="2" t="s">
         <v>304</v>
@@ -15342,7 +15361,7 @@
         <v>6</v>
       </c>
       <c r="Y70" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z70" s="2">
         <v>1100</v>
@@ -15411,7 +15430,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z71" s="2">
         <v>801</v>
@@ -15480,7 +15499,7 @@
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z72" s="2">
         <v>1132</v>
@@ -15549,7 +15568,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z73" s="2">
         <v>675</v>
@@ -15618,7 +15637,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z74" s="2">
         <v>552</v>
@@ -15703,7 +15722,7 @@
         <v>6</v>
       </c>
       <c r="Y75" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z75" s="2">
         <v>1512</v>
@@ -15841,7 +15860,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z77" s="2">
         <v>1901</v>
@@ -15910,7 +15929,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z78" s="2">
         <v>2233</v>
@@ -15978,7 +15997,7 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z79" s="2" t="s">
         <v>304</v>
@@ -16062,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="Y80" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z80" s="2">
         <v>1955</v>
@@ -16130,7 +16149,7 @@
       </c>
       <c r="X81" s="2"/>
       <c r="Y81" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z81" s="2">
         <v>2547</v>
@@ -16198,7 +16217,7 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z82" s="2" t="s">
         <v>304</v>
@@ -16267,7 +16286,7 @@
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z83" s="2">
         <v>41</v>
@@ -16335,7 +16354,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z84" s="2">
         <v>562</v>
@@ -16403,7 +16422,7 @@
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z85" s="2" t="s">
         <v>304</v>
@@ -16471,7 +16490,7 @@
       </c>
       <c r="X86" s="2"/>
       <c r="Y86" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z86" s="2" t="s">
         <v>304</v>
@@ -16540,7 +16559,7 @@
       </c>
       <c r="X87" s="2"/>
       <c r="Y87" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z87" s="2">
         <v>830</v>
@@ -16609,7 +16628,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z88" s="2">
         <v>897</v>
@@ -16678,7 +16697,7 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z89" s="2">
         <v>290</v>
@@ -16763,7 +16782,7 @@
         <v>4</v>
       </c>
       <c r="Y90" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z90" s="2">
         <v>750</v>
@@ -16831,7 +16850,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z91" s="2" t="s">
         <v>304</v>
@@ -16899,7 +16918,7 @@
       </c>
       <c r="X92" s="2"/>
       <c r="Y92" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z92" s="2" t="s">
         <v>304</v>
@@ -16968,7 +16987,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z93" s="2">
         <v>2183</v>
@@ -17036,7 +17055,7 @@
       </c>
       <c r="X94" s="2"/>
       <c r="Y94" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z94" s="2" t="s">
         <v>304</v>
@@ -17120,7 +17139,7 @@
         <v>3</v>
       </c>
       <c r="Y95" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z95" s="2">
         <v>450</v>
@@ -17188,7 +17207,7 @@
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z96" s="2" t="s">
         <v>304</v>
@@ -17256,7 +17275,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z97" s="2">
         <v>2400</v>
@@ -17325,7 +17344,7 @@
       </c>
       <c r="X98" s="2"/>
       <c r="Y98" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z98" s="2">
         <v>400</v>
@@ -17394,7 +17413,7 @@
       </c>
       <c r="X99" s="2"/>
       <c r="Y99" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z99" s="2">
         <v>570</v>
@@ -17462,7 +17481,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z100" s="2" t="s">
         <v>304</v>
@@ -17531,7 +17550,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z101" s="2">
         <v>412</v>
@@ -17600,7 +17619,7 @@
       </c>
       <c r="X102" s="2"/>
       <c r="Y102" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z102" s="2">
         <v>297</v>
@@ -17668,7 +17687,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z103" s="2">
         <v>400</v>
@@ -17752,7 +17771,7 @@
         <v>4</v>
       </c>
       <c r="Y104" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z104" s="2" t="s">
         <v>304</v>
@@ -17836,7 +17855,7 @@
         <v>4</v>
       </c>
       <c r="Y105" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z105" s="2">
         <v>1200</v>
@@ -17905,7 +17924,7 @@
       </c>
       <c r="X106" s="2"/>
       <c r="Y106" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z106" s="2">
         <v>25.4</v>
@@ -17974,7 +17993,7 @@
       </c>
       <c r="X107" s="2"/>
       <c r="Y107" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z107" s="2">
         <v>656</v>
@@ -18043,7 +18062,7 @@
       </c>
       <c r="X108" s="2"/>
       <c r="Y108" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z108" s="2">
         <v>380</v>
@@ -18112,7 +18131,7 @@
       </c>
       <c r="X109" s="2"/>
       <c r="Y109" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z109" s="2" t="s">
         <v>304</v>
@@ -18181,7 +18200,7 @@
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z110" s="2">
         <v>2485</v>
@@ -18249,7 +18268,7 @@
       </c>
       <c r="X111" s="2"/>
       <c r="Y111" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z111" s="2" t="s">
         <v>304</v>
@@ -18318,7 +18337,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z112" s="2">
         <v>340</v>
@@ -18387,7 +18406,7 @@
       </c>
       <c r="X113" s="2"/>
       <c r="Y113" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z113" s="2">
         <v>1722</v>
@@ -18456,7 +18475,7 @@
       </c>
       <c r="X114" s="2"/>
       <c r="Y114" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z114" s="2">
         <v>2269</v>
@@ -18524,7 +18543,7 @@
       </c>
       <c r="X115" s="2"/>
       <c r="Y115" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z115" s="2" t="s">
         <v>304</v>
@@ -18593,7 +18612,7 @@
       </c>
       <c r="X116" s="2"/>
       <c r="Y116" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z116" s="2">
         <v>1080</v>
@@ -18677,7 +18696,7 @@
         <v>4</v>
       </c>
       <c r="Y117" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z117" s="2">
         <v>1630</v>
@@ -18746,7 +18765,7 @@
       </c>
       <c r="X118" s="2"/>
       <c r="Y118" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z118" s="2">
         <v>2531</v>
@@ -18814,7 +18833,7 @@
       </c>
       <c r="X119" s="2"/>
       <c r="Y119" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z119" s="2">
         <v>215</v>
@@ -18883,7 +18902,7 @@
       </c>
       <c r="X120" s="2"/>
       <c r="Y120" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z120" s="2">
         <v>1784</v>
@@ -18952,7 +18971,7 @@
       </c>
       <c r="X121" s="2"/>
       <c r="Y121" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z121" s="2">
         <v>2303</v>
@@ -19020,7 +19039,7 @@
       </c>
       <c r="X122" s="2"/>
       <c r="Y122" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z122" s="2">
         <v>119.5</v>
@@ -19088,7 +19107,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z123" s="2" t="s">
         <v>304</v>
@@ -19156,7 +19175,7 @@
       </c>
       <c r="X124" s="2"/>
       <c r="Y124" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z124" s="2" t="s">
         <v>304</v>
@@ -19225,7 +19244,7 @@
       </c>
       <c r="X125" s="2"/>
       <c r="Y125" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z125" s="2">
         <v>733</v>
@@ -19293,7 +19312,7 @@
       </c>
       <c r="X126" s="2"/>
       <c r="Y126" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z126" s="2">
         <v>430</v>
@@ -19361,7 +19380,7 @@
       </c>
       <c r="X127" s="2"/>
       <c r="Y127" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z127" s="2">
         <v>3390</v>
@@ -19429,7 +19448,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z128" s="2" t="s">
         <v>304</v>
@@ -19498,7 +19517,7 @@
       </c>
       <c r="X129" s="2"/>
       <c r="Y129" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z129" s="2">
         <v>1842</v>
@@ -19566,7 +19585,7 @@
       </c>
       <c r="X130" s="2"/>
       <c r="Y130" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z130" s="2" t="s">
         <v>304</v>
@@ -19635,7 +19654,7 @@
       </c>
       <c r="X131" s="2"/>
       <c r="Y131" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z131" s="2">
         <v>1777</v>
@@ -19703,7 +19722,7 @@
       </c>
       <c r="X132" s="2"/>
       <c r="Y132" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z132" s="2" t="s">
         <v>304</v>
@@ -19772,7 +19791,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z133" s="2">
         <v>1750</v>
@@ -19857,7 +19876,7 @@
         <v>4</v>
       </c>
       <c r="Y134" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z134" s="2">
         <v>1843</v>
@@ -19926,7 +19945,7 @@
       </c>
       <c r="X135" s="2"/>
       <c r="Y135" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z135" s="2">
         <v>579</v>
@@ -19994,7 +20013,7 @@
       </c>
       <c r="X136" s="2"/>
       <c r="Y136" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z136" s="2">
         <v>834</v>
@@ -20062,7 +20081,7 @@
       </c>
       <c r="X137" s="2"/>
       <c r="Y137" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z137" s="2" t="s">
         <v>304</v>
@@ -20131,7 +20150,7 @@
       </c>
       <c r="X138" s="2"/>
       <c r="Y138" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z138" s="2">
         <v>2341</v>
@@ -20200,7 +20219,7 @@
       </c>
       <c r="X139" s="2"/>
       <c r="Y139" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z139" s="2">
         <v>1300</v>
@@ -20269,7 +20288,7 @@
       </c>
       <c r="X140" s="2"/>
       <c r="Y140" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z140" s="2">
         <v>2827</v>
@@ -20338,7 +20357,7 @@
       </c>
       <c r="X141" s="2"/>
       <c r="Y141" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z141" s="2" t="s">
         <v>304</v>
@@ -20423,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="Y142" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z142" s="2">
         <v>2067</v>
@@ -20492,7 +20511,7 @@
       </c>
       <c r="X143" s="2"/>
       <c r="Y143" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z143" s="2">
         <v>670</v>
@@ -20561,7 +20580,7 @@
       </c>
       <c r="X144" s="2"/>
       <c r="Y144" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z144" s="2" t="s">
         <v>304</v>
@@ -20629,7 +20648,7 @@
       </c>
       <c r="X145" s="2"/>
       <c r="Y145" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z145" s="2" t="s">
         <v>304</v>
@@ -20697,7 +20716,7 @@
       </c>
       <c r="X146" s="2"/>
       <c r="Y146" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z146" s="2">
         <v>1967</v>
@@ -20765,7 +20784,7 @@
       </c>
       <c r="X147" s="2"/>
       <c r="Y147" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z147" s="2" t="s">
         <v>304</v>
@@ -20834,7 +20853,7 @@
       </c>
       <c r="X148" s="2"/>
       <c r="Y148" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z148" s="2">
         <v>1500</v>
@@ -20903,7 +20922,7 @@
       </c>
       <c r="X149" s="2"/>
       <c r="Y149" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z149" s="2">
         <v>1472</v>
@@ -20988,7 +21007,7 @@
         <v>1</v>
       </c>
       <c r="Y150" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z150" s="2">
         <v>2438</v>
@@ -21056,7 +21075,7 @@
       </c>
       <c r="X151" s="2"/>
       <c r="Y151" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z151" s="2" t="s">
         <v>304</v>
@@ -21141,7 +21160,7 @@
         <v>2</v>
       </c>
       <c r="Y152" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z152" s="2">
         <v>1974</v>
@@ -21201,7 +21220,7 @@
       </c>
       <c r="X153" s="2"/>
       <c r="Y153" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Z153" s="2" t="s">
         <v>304</v>
@@ -21278,7 +21297,7 @@
         <v>6</v>
       </c>
       <c r="Y154" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z154" s="2">
         <v>2709</v>
@@ -35597,7 +35616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B73BE9-3FFE-475D-A723-92CE87E67446}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -35640,7 +35659,7 @@
         <v>350</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>459</v>
@@ -38767,10 +38786,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5644F9-DFD0-4528-8865-285E45E0996E}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38787,7 +38806,7 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>459</v>
       </c>
@@ -38807,16 +38826,13 @@
         <v>465</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>460</v>
       </c>
@@ -38841,10 +38857,10 @@
         <v>337</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>466</v>
       </c>
@@ -38859,7 +38875,7 @@
         <v>2.863306617405442</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>467</v>
       </c>
@@ -38874,7 +38890,7 @@
         <v>3.0348957405408328E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>468</v>
       </c>
@@ -38889,13 +38905,10 @@
         <v>3.151560317405437</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>469</v>
       </c>
@@ -38910,13 +38923,13 @@
         <v>2.1207167974054499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>470</v>
       </c>
@@ -38931,172 +38944,188 @@
         <v>3.8805203374054358</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>-198.95805204999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-190.60804726000001</v>
+      </c>
+      <c r="E8" s="2">
+        <f>D8+$F$2-C8</f>
+        <v>3.4207135174054315</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>472</v>
       </c>
       <c r="C9" s="2">
-        <v>-198.95805204999999</v>
+        <v>-370.91003302000001</v>
       </c>
       <c r="D9" s="2">
-        <v>-190.60804726000001</v>
+        <v>-363.25697377</v>
       </c>
       <c r="E9" s="2">
         <f>D9+$F$2-C9</f>
-        <v>3.4207135174054315</v>
+        <v>2.72376797740543</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="H9" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>473</v>
       </c>
       <c r="C10" s="2">
-        <v>-370.91003302000001</v>
+        <v>-26.170262690000001</v>
       </c>
       <c r="D10" s="2">
-        <v>-363.25697377</v>
+        <v>-16.86637743</v>
       </c>
       <c r="E10" s="2">
         <f>D10+$F$2-C10</f>
-        <v>2.72376797740543</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="H10" s="36" t="s">
+        <v>4.37459398740544</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>474</v>
       </c>
       <c r="C11" s="2">
-        <v>-26.170262690000001</v>
+        <v>-38.468832970000001</v>
       </c>
       <c r="D11" s="2">
-        <v>-16.86637743</v>
+        <v>-30.376762379999999</v>
       </c>
       <c r="E11" s="2">
         <f>D11+$F$2-C11</f>
-        <v>4.37459398740544</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="H11" s="39" t="s">
+        <v>3.1627793174054446</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C12" s="2">
-        <v>-38.468832970000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-30.376762379999999</v>
-      </c>
-      <c r="E12" s="2">
-        <f>D12+$F$2-C12</f>
-        <v>3.1627793174054446</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="H12" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="H12" s="38" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>-599.97843897999996</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-592.86837573000003</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E30" si="1">D13+$F$2-C13</f>
+        <v>2.1807719774053567</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>477</v>
       </c>
       <c r="C14" s="2">
-        <v>-599.97843897999996</v>
+        <v>-211.90299375000001</v>
       </c>
       <c r="D14" s="2">
-        <v>-592.86837573000003</v>
+        <v>-204.22567572</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:E31" si="1">D14+$F$2-C14</f>
-        <v>2.1807719774053567</v>
+        <f t="shared" si="1"/>
+        <v>2.7480267574054551</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>478</v>
       </c>
       <c r="C15" s="2">
-        <v>-211.90299375000001</v>
+        <v>-62.134829379999999</v>
       </c>
       <c r="D15" s="2">
-        <v>-204.22567572</v>
+        <v>-52.416623219999998</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>2.7480267574054551</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>568</v>
+        <v>4.7889148874054399</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>479</v>
       </c>
       <c r="C16" s="2">
-        <v>-62.134829379999999</v>
+        <v>-89.201065069999999</v>
       </c>
       <c r="D16" s="2">
-        <v>-52.416623219999998</v>
+        <v>-79.460188040000006</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>4.7889148874054399</v>
-      </c>
-      <c r="G16" s="2">
-        <v>100</v>
-      </c>
-      <c r="H16" s="39" t="s">
+        <v>4.8115857574054388</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>549</v>
       </c>
     </row>
@@ -39105,41 +39134,41 @@
         <v>480</v>
       </c>
       <c r="C17" s="2">
-        <v>-89.201065069999999</v>
+        <v>-228.46961936</v>
       </c>
       <c r="D17" s="2">
-        <v>-79.460188040000006</v>
+        <v>-220.47352824000001</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>4.8115857574054388</v>
+        <v>3.0667998474054343</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>569</v>
+        <v>337</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>481</v>
       </c>
       <c r="C18" s="2">
-        <v>-228.46961936</v>
+        <v>-151.22276837999999</v>
       </c>
       <c r="D18" s="2">
-        <v>-220.47352824000001</v>
+        <v>-144.0289775</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>3.0667998474054343</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>551</v>
+        <v>2.2644996074054404</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -39147,20 +39176,14 @@
         <v>482</v>
       </c>
       <c r="C19" s="2">
-        <v>-151.22276837999999</v>
+        <v>-21.506446919999998</v>
       </c>
       <c r="D19" s="2">
-        <v>-144.0289775</v>
+        <v>-13.614792120000001</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>2.2644996074054404</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>557</v>
+        <v>2.9623635274054365</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -39168,14 +39191,14 @@
         <v>483</v>
       </c>
       <c r="C20" s="2">
-        <v>-21.506446919999998</v>
+        <v>-119.22725527</v>
       </c>
       <c r="D20" s="2">
-        <v>-13.614792120000001</v>
+        <v>-110.98209944</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>2.9623635274054365</v>
+        <v>3.3158645574054475</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -39183,14 +39206,14 @@
         <v>484</v>
       </c>
       <c r="C21" s="2">
-        <v>-119.22725527</v>
+        <v>-145.1925918</v>
       </c>
       <c r="D21" s="2">
-        <v>-110.98209944</v>
+        <v>-137.94298309999999</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>3.3158645574054475</v>
+        <v>2.3203174274054561</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -39198,14 +39221,14 @@
         <v>485</v>
       </c>
       <c r="C22" s="2">
-        <v>-145.1925918</v>
+        <v>-128.28174139999999</v>
       </c>
       <c r="D22" s="2">
-        <v>-137.94298309999999</v>
+        <v>-119.53463073</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>2.3203174274054561</v>
+        <v>3.8178193974054295</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -39213,14 +39236,14 @@
         <v>486</v>
       </c>
       <c r="C23" s="2">
-        <v>-128.28174139999999</v>
+        <v>-22.725284030000001</v>
       </c>
       <c r="D23" s="2">
-        <v>-119.53463073</v>
+        <v>-14.542637109999999</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>3.8178193974054295</v>
+        <v>3.2533556474054421</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -39228,14 +39251,20 @@
         <v>487</v>
       </c>
       <c r="C24" s="2">
-        <v>-22.725284030000001</v>
+        <v>-37.303320249999999</v>
       </c>
       <c r="D24" s="2">
-        <v>-14.542637109999999</v>
+        <v>-29.109387139999999</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>3.2533556474054421</v>
+        <v>3.264641837405442</v>
+      </c>
+      <c r="G24" s="2">
+        <v>110</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -39243,20 +39272,17 @@
         <v>488</v>
       </c>
       <c r="C25" s="2">
-        <v>-37.303320249999999</v>
+        <v>-129.09829221999999</v>
       </c>
       <c r="D25" s="2">
-        <v>-29.109387139999999</v>
+        <v>-121.46597087000001</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>3.264641837405442</v>
-      </c>
-      <c r="G25" s="2">
-        <v>110</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>552</v>
+        <v>2.7030300774054297</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -39264,17 +39290,20 @@
         <v>489</v>
       </c>
       <c r="C26" s="2">
-        <v>-129.09829221999999</v>
+        <v>-104.14184631000001</v>
       </c>
       <c r="D26" s="2">
-        <v>-121.46597087000001</v>
+        <v>-97.75657047</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>2.7030300774054297</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>570</v>
+        <v>1.4559845674054515</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -39282,20 +39311,14 @@
         <v>490</v>
       </c>
       <c r="C27" s="2">
-        <v>-104.14184631000001</v>
+        <v>-252.80621321000001</v>
       </c>
       <c r="D27" s="2">
-        <v>-97.75657047</v>
+        <v>-243.26874002</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>1.4559845674054515</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>553</v>
+        <v>4.6081819174054601</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -39303,14 +39326,14 @@
         <v>491</v>
       </c>
       <c r="C28" s="2">
-        <v>-252.80621321000001</v>
+        <v>-452.11876445000001</v>
       </c>
       <c r="D28" s="2">
-        <v>-243.26874002</v>
+        <v>-444.95806028999999</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>4.6081819174054601</v>
+        <v>2.2314128874054404</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -39318,14 +39341,14 @@
         <v>492</v>
       </c>
       <c r="C29" s="2">
-        <v>-452.11876445000001</v>
+        <v>-91.867609689999995</v>
       </c>
       <c r="D29" s="2">
-        <v>-444.95806028999999</v>
+        <v>-81.526373460000002</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>2.2314128874054404</v>
+        <v>5.4119449574054386</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -39333,54 +39356,39 @@
         <v>493</v>
       </c>
       <c r="C30" s="2">
-        <v>-91.867609689999995</v>
+        <v>-241.15803285000001</v>
       </c>
       <c r="D30" s="2">
-        <v>-81.526373460000002</v>
+        <v>-231.75466761000001</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>5.4119449574054386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-241.15803285000001</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-231.75466761000001</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="1"/>
         <v>4.4740739674054453</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>554</v>
+      <c r="H30" s="40" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{6CDAE7FB-2E02-4C05-A982-CA04466BC29B}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{06F31AE8-331F-4702-B515-3117DD661AAD}"/>
-    <hyperlink ref="H9" r:id="rId3" display="https://doi.org/10.1088/1361-648X/aac743," xr:uid="{96B8D3C6-82CD-4DF7-A286-82FE6E4B6F0C}"/>
-    <hyperlink ref="H11" r:id="rId4" xr:uid="{DD30A351-E6D7-43CE-89F7-86CACDF97AE5}"/>
-    <hyperlink ref="H12" r:id="rId5" xr:uid="{39B8DCB9-A949-40A8-AB86-37835E33987A}"/>
-    <hyperlink ref="H13" r:id="rId6" tooltip="DOI URL" display="https://doi.org/10.1021/jp3004773" xr:uid="{62069577-4BEB-4A79-B7D4-C29E8BE881EE}"/>
-    <hyperlink ref="H31" r:id="rId7" xr:uid="{97CC427D-3951-4F87-9E91-B1DA106D14EF}"/>
-    <hyperlink ref="H15" r:id="rId8" xr:uid="{62482901-86CF-4ABE-B9F4-AC6AF73A8C42}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{F3E23C30-6AD9-4049-ACD7-FCDD15052FC4}"/>
-    <hyperlink ref="H19" r:id="rId10" xr:uid="{2ECB89D4-DFD8-4AC4-9A36-E2928B476D6C}"/>
+    <hyperlink ref="H8" r:id="rId3" display="https://doi.org/10.1088/1361-648X/aac743," xr:uid="{96B8D3C6-82CD-4DF7-A286-82FE6E4B6F0C}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{DD30A351-E6D7-43CE-89F7-86CACDF97AE5}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{39B8DCB9-A949-40A8-AB86-37835E33987A}"/>
+    <hyperlink ref="H12" r:id="rId6" tooltip="DOI URL" display="https://doi.org/10.1021/jp3004773" xr:uid="{62069577-4BEB-4A79-B7D4-C29E8BE881EE}"/>
+    <hyperlink ref="H30" r:id="rId7" xr:uid="{97CC427D-3951-4F87-9E91-B1DA106D14EF}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{62482901-86CF-4ABE-B9F4-AC6AF73A8C42}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{F3E23C30-6AD9-4049-ACD7-FCDD15052FC4}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{2ECB89D4-DFD8-4AC4-9A36-E2928B476D6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="G2 G18 G27 G31" numberStoredAsText="1"/>
+    <ignoredError sqref="G2 G17 G26 G30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -39390,7 +39398,7 @@
   <dimension ref="A1:O298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39411,46 +39419,46 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>328</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>614</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -47377,8 +47385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6790254-5CEC-4CFA-8812-D61E5E995C32}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47396,56 +47404,56 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>572</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>573</v>
-      </c>
       <c r="D1" s="100" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="142" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="164">
+      <c r="C2" s="146">
         <v>3.3904109706261301E-2</v>
       </c>
       <c r="D2" s="127">
         <v>3.0308439874054298</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="155" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="169" t="s">
-        <v>597</v>
+      <c r="F2" s="138" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="161"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="165"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="129">
         <v>3.3239820074054398</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="169"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="142" t="s">
         <v>468</v>
       </c>
       <c r="B4" s="125">
@@ -47457,17 +47465,17 @@
       <c r="D4" s="130">
         <v>1.91862856740539</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="155" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="169" t="s">
-        <v>596</v>
+      <c r="F4" s="138" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="131" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C5" s="132">
         <v>0.32205517697242098</v>
@@ -47475,13 +47483,13 @@
       <c r="D5" s="133">
         <v>2.5098057874054498</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="169"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="111" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C6" s="112">
         <v>0.269542600903181</v>
@@ -47489,15 +47497,15 @@
       <c r="D6" s="129">
         <v>-1.12009968259455</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="169"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="149" t="s">
         <v>469</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C7" s="55">
         <v>5.5445421405581598E-2</v>
@@ -47505,15 +47513,15 @@
       <c r="D7" s="56">
         <v>2.3577677274054101</v>
       </c>
-      <c r="E7" s="145" t="s">
-        <v>603</v>
-      </c>
-      <c r="F7" s="169"/>
+      <c r="E7" s="158" t="s">
+        <v>601</v>
+      </c>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="168"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="57" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C8" s="58">
         <v>0.244539410765303</v>
@@ -47521,11 +47529,11 @@
       <c r="D8" s="59">
         <v>-3.8362542594540999E-2</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="169"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="151" t="s">
         <v>470</v>
       </c>
       <c r="B9" s="125">
@@ -47537,15 +47545,15 @@
       <c r="D9" s="127">
         <v>0.57635066740544905</v>
       </c>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="169"/>
+      <c r="F9" s="138"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="48" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C10" s="49">
         <v>0.57080615585029004</v>
@@ -47553,13 +47561,13 @@
       <c r="D10" s="62">
         <v>1.83464093740545</v>
       </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="169"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="138"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="139"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="63" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C11" s="64">
         <v>0.15876409968765501</v>
@@ -47567,15 +47575,15 @@
       <c r="D11" s="65">
         <v>-0.54624473259457296</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="169"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="138"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
-        <v>472</v>
+      <c r="A12" s="166" t="s">
+        <v>471</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C12" s="55">
         <v>0.23859638425782301</v>
@@ -47583,15 +47591,15 @@
       <c r="D12" s="67">
         <v>4.0221599874054101</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="F12" s="170"/>
+      <c r="F12" s="139"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154"/>
+      <c r="A13" s="167"/>
       <c r="B13" s="71" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C13" s="50">
         <v>0.37717382066015598</v>
@@ -47599,15 +47607,15 @@
       <c r="D13" s="72">
         <v>-3.2670075425946798</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="170"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="139"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="155" t="s">
-        <v>473</v>
+      <c r="A14" s="168" t="s">
+        <v>472</v>
       </c>
       <c r="B14" s="114" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C14" s="115">
         <v>0.15602959110056999</v>
@@ -47615,15 +47623,15 @@
       <c r="D14" s="116">
         <v>1.6800129474054299</v>
       </c>
-      <c r="E14" s="147" t="s">
+      <c r="E14" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="170"/>
+      <c r="F14" s="139"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="111" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C15" s="112">
         <v>0.136699803612056</v>
@@ -47631,12 +47639,12 @@
       <c r="D15" s="113">
         <v>1.8519125174054201</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="170"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="139"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="140" t="s">
-        <v>474</v>
+      <c r="A16" s="153" t="s">
+        <v>473</v>
       </c>
       <c r="B16" s="54">
         <v>110</v>
@@ -47647,15 +47655,15 @@
       <c r="D16" s="56">
         <v>3.6845018674054302</v>
       </c>
-      <c r="E16" s="147" t="s">
+      <c r="E16" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="F16" s="169"/>
+      <c r="F16" s="138"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
+      <c r="A17" s="170"/>
       <c r="B17" s="48" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C17" s="49">
         <v>0.560067840147913</v>
@@ -47663,13 +47671,13 @@
       <c r="D17" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="169"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="138"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="141"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="73" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C18" s="74">
         <v>-6.5601907175453396E-3</v>
@@ -47677,15 +47685,15 @@
       <c r="D18" s="75">
         <v>2.5016611374053901</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="169"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="138"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C19" s="122">
         <v>0.124803014354723</v>
@@ -47697,12 +47705,12 @@
         <v>326</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="158" t="s">
-        <v>476</v>
+      <c r="A20" s="140" t="s">
+        <v>475</v>
       </c>
       <c r="B20" s="54">
         <v>100</v>
@@ -47713,13 +47721,13 @@
       <c r="D20" s="56">
         <v>2.5408861074054099</v>
       </c>
-      <c r="E20" s="150" t="s">
+      <c r="E20" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="169"/>
+      <c r="F20" s="138"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="117">
         <v>111</v>
       </c>
@@ -47729,12 +47737,12 @@
       <c r="D21" s="119">
         <v>2.1188442974054098</v>
       </c>
-      <c r="E21" s="151"/>
-      <c r="F21" s="169"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="138"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B22" s="79" t="s">
         <v>339</v>
@@ -47751,11 +47759,11 @@
       <c r="F22" s="98"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="138" t="s">
-        <v>478</v>
+      <c r="A23" s="151" t="s">
+        <v>477</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C23" s="60">
         <v>0.14058912840377499</v>
@@ -47763,15 +47771,15 @@
       <c r="D23" s="61">
         <v>1.51702027740543</v>
       </c>
-      <c r="E23" s="150" t="s">
+      <c r="E23" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="170"/>
+      <c r="F23" s="139"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="139"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="68" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C24" s="69">
         <v>5.38402544073283E-2</v>
@@ -47779,12 +47787,12 @@
       <c r="D24" s="70">
         <v>2.6014975474054101</v>
       </c>
-      <c r="E24" s="151"/>
-      <c r="F24" s="170"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="139"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="90" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B25" s="91">
         <v>100</v>
@@ -47802,10 +47810,10 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="120" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B26" s="134" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C26" s="122">
         <v>0.204857357893384</v>
@@ -47817,15 +47825,15 @@
         <v>326</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="83" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C27" s="85">
         <v>-0.14093733148086199</v>
@@ -47840,7 +47848,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="124" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B28" s="125">
         <v>100</v>
@@ -47855,12 +47863,12 @@
         <v>326</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B29" s="121">
         <v>100</v>
@@ -47875,15 +47883,15 @@
         <v>326</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C30" s="88">
         <v>6.4521514360412494E-2</v>
@@ -47898,10 +47906,10 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B31" s="89" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C31" s="77">
         <v>2.36465648743483E-2</v>
@@ -47916,7 +47924,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B32" s="52">
         <v>100</v>
@@ -47934,10 +47942,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C33" s="92">
         <v>1.19721945732916E-2</v>
@@ -47952,10 +47960,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C34" s="53">
         <v>-2.4514926757940601E-4</v>
@@ -47967,12 +47975,12 @@
         <v>326</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="120" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B35" s="121">
         <v>100</v>
@@ -47987,15 +47995,15 @@
         <v>326</v>
       </c>
       <c r="F35" s="97" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="93" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B36" s="94" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C36" s="95">
         <v>-9.9338640216688701E-2</v>
@@ -48010,10 +48018,10 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B37" s="82" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C37" s="53">
         <v>8.1780585302742098E-2</v>
@@ -48025,15 +48033,15 @@
         <v>327</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="83" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C38" s="85">
         <v>-8.0581676791333205E-3</v>
@@ -48047,11 +48055,11 @@
       <c r="F38" s="98"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="140" t="s">
-        <v>493</v>
+      <c r="A39" s="153" t="s">
+        <v>492</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C39" s="55">
         <v>0.11314757691313</v>
@@ -48059,15 +48067,15 @@
       <c r="D39" s="67">
         <v>5.2656480574054196</v>
       </c>
-      <c r="E39" s="150" t="s">
+      <c r="E39" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="F39" s="170"/>
+      <c r="F39" s="139"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="141"/>
+      <c r="A40" s="154"/>
       <c r="B40" s="96" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C40" s="74">
         <v>-0.116880126830938</v>
@@ -48075,15 +48083,15 @@
       <c r="D40" s="107">
         <v>2.3158929874053902</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="170"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="139"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C41" s="77">
         <v>8.3487218640498795E-2</v>
@@ -48098,22 +48106,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="E2:E3"/>
@@ -48130,8 +48122,490 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE504C2-276F-4DD2-8CA4-71E542FA2032}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="171" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="171" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="171" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="172" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="172" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="171"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="171" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="171" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" s="171" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1" s="172" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1" s="172" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="172">
+        <v>-2.05993110717329</v>
+      </c>
+      <c r="C2" s="172">
+        <v>3.03645521740544</v>
+      </c>
+      <c r="D2" s="172">
+        <v>3.3904109706261301E-2</v>
+      </c>
+      <c r="E2" s="172">
+        <v>3.0308439874054298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="172">
+        <v>-2.0627486946581599</v>
+      </c>
+      <c r="C3" s="172">
+        <v>3.14684491740543</v>
+      </c>
+      <c r="D3" s="172">
+        <v>0.269542600903181</v>
+      </c>
+      <c r="E3" s="173">
+        <v>-1.12009968259455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="171" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="172">
+        <v>-0.28635675849167702</v>
+      </c>
+      <c r="C4" s="172">
+        <v>1.9749163874054401</v>
+      </c>
+      <c r="D4" s="172">
+        <v>0.244539410765303</v>
+      </c>
+      <c r="E4" s="172">
+        <v>-3.8362542594540999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="172">
+        <v>0.15461536781290999</v>
+      </c>
+      <c r="C5" s="172">
+        <v>3.88271770740544</v>
+      </c>
+      <c r="D5" s="172">
+        <v>0.15876409968765501</v>
+      </c>
+      <c r="E5" s="173">
+        <v>-0.54624473259457296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="171" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="172">
+        <v>-0.61862350960994095</v>
+      </c>
+      <c r="C6" s="172">
+        <v>3.3027707674054301</v>
+      </c>
+      <c r="D6" s="172">
+        <v>0.37717382066015598</v>
+      </c>
+      <c r="E6" s="172">
+        <v>-3.2670075425946798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="171" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="172">
+        <v>-0.48480478238550301</v>
+      </c>
+      <c r="C7" s="172">
+        <v>3.0595893874054201</v>
+      </c>
+      <c r="D7" s="172">
+        <v>0.15602959110056999</v>
+      </c>
+      <c r="E7" s="172">
+        <v>1.6800129474054299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="171" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="172">
+        <v>0.10335720262114099</v>
+      </c>
+      <c r="C8" s="172">
+        <v>4.3747270074054398</v>
+      </c>
+      <c r="D8" s="172">
+        <v>-6.5601907175453396E-3</v>
+      </c>
+      <c r="E8" s="173">
+        <v>2.5016611374053901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="171" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="172">
+        <v>-2.4285330681078698</v>
+      </c>
+      <c r="C9" s="172">
+        <v>3.0922237174054299</v>
+      </c>
+      <c r="D9" s="172">
+        <v>0.124803014354723</v>
+      </c>
+      <c r="E9" s="173">
+        <v>2.7846094374053698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="172">
+        <v>-2.6646097334453098</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="172">
+        <v>0.108073993148637</v>
+      </c>
+      <c r="E10" s="173">
+        <v>2.1188442974054098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="171" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="172">
+        <v>-1.57324684073997</v>
+      </c>
+      <c r="C11" s="172">
+        <v>2.1743416374054001</v>
+      </c>
+      <c r="D11" s="172">
+        <v>0.42132970300595002</v>
+      </c>
+      <c r="E11" s="172">
+        <v>-0.30614277259456901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="172">
+        <v>-1.56785432271928</v>
+      </c>
+      <c r="C12" s="172">
+        <v>2.6897796274054402</v>
+      </c>
+      <c r="D12" s="172">
+        <v>0.14058912840377499</v>
+      </c>
+      <c r="E12" s="172">
+        <v>1.51702027740543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="171" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="172">
+        <v>-1.6086314186572299</v>
+      </c>
+      <c r="C13" s="172">
+        <v>4.7865577574054399</v>
+      </c>
+      <c r="D13" s="172">
+        <v>8.9729637784239993E-2</v>
+      </c>
+      <c r="E13" s="172">
+        <v>4.4432239374053699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="172">
+        <v>-0.75224628676349903</v>
+      </c>
+      <c r="C14" s="172">
+        <v>4.8136223274054499</v>
+      </c>
+      <c r="D14" s="172">
+        <v>0.204857357893384</v>
+      </c>
+      <c r="E14" s="172">
+        <v>3.54274209740549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="172">
+        <v>-0.94435939114414502</v>
+      </c>
+      <c r="C15" s="172">
+        <v>3.05283259740545</v>
+      </c>
+      <c r="D15" s="172">
+        <v>-0.14093733148086199</v>
+      </c>
+      <c r="E15" s="172">
+        <v>2.7234189674054501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="171" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="172">
+        <v>-2.2679323080990801</v>
+      </c>
+      <c r="C16" s="172">
+        <v>3.2920384774054399</v>
+      </c>
+      <c r="D16" s="172">
+        <v>6.4521514360412494E-2</v>
+      </c>
+      <c r="E16" s="172">
+        <v>1.5824281774054001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="171" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="172">
+        <v>-2.0928295573006701</v>
+      </c>
+      <c r="C17" s="172">
+        <v>2.3068136074054402</v>
+      </c>
+      <c r="D17" s="172">
+        <v>2.36465648743483E-2</v>
+      </c>
+      <c r="E17" s="172">
+        <v>-1.0979680625945301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="172">
+        <v>-2.5560708781736401</v>
+      </c>
+      <c r="C18" s="172">
+        <v>3.4109907274054398</v>
+      </c>
+      <c r="D18" s="172">
+        <v>4.4790606214817202E-2</v>
+      </c>
+      <c r="E18" s="172">
+        <v>2.5795764374054202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="172">
+        <v>-2.5884871133272802</v>
+      </c>
+      <c r="C19" s="172">
+        <v>3.23383048740543</v>
+      </c>
+      <c r="D19" s="172">
+        <v>1.19721945732916E-2</v>
+      </c>
+      <c r="E19" s="172">
+        <v>2.33145475740548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="172">
+        <v>-2.4742622903663598</v>
+      </c>
+      <c r="C20" s="172">
+        <v>3.23532651740544</v>
+      </c>
+      <c r="D20" s="172">
+        <v>-2.4514926757940601E-4</v>
+      </c>
+      <c r="E20" s="172">
+        <v>3.69205014740538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="171" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="172">
+        <v>-1.567924493342</v>
+      </c>
+      <c r="C21" s="172">
+        <v>2.70142826740544</v>
+      </c>
+      <c r="D21" s="172">
+        <v>6.1160966190277897E-3</v>
+      </c>
+      <c r="E21" s="172">
+        <v>1.9454189574054199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="172">
+        <v>-1.8896498142260001</v>
+      </c>
+      <c r="C22" s="172">
+        <v>1.3789851174054399</v>
+      </c>
+      <c r="D22" s="172">
+        <v>-9.9338640216688701E-2</v>
+      </c>
+      <c r="E22" s="172">
+        <v>1.6440883274053699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="172">
+        <v>-2.3167328341362801</v>
+      </c>
+      <c r="C23" s="172">
+        <v>4.6105982474054397</v>
+      </c>
+      <c r="D23" s="172">
+        <v>8.1780585302742098E-2</v>
+      </c>
+      <c r="E23" s="172">
+        <v>2.4371837874053801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="171" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="172">
+        <v>-1.9827880216179401</v>
+      </c>
+      <c r="C24" s="172">
+        <v>1.63996525740543</v>
+      </c>
+      <c r="D24" s="172">
+        <v>-8.0581676791333205E-3</v>
+      </c>
+      <c r="E24" s="172">
+        <v>1.99464387740545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="172">
+        <v>-7.7828179942835002E-2</v>
+      </c>
+      <c r="C25" s="172">
+        <v>5.41741480740545</v>
+      </c>
+      <c r="D25" s="172">
+        <v>-0.116880126830938</v>
+      </c>
+      <c r="E25" s="172">
+        <v>2.3158929874053902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="171" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="172">
+        <v>-0.801284650347036</v>
+      </c>
+      <c r="C26" s="172">
+        <v>4.4696641674054503</v>
+      </c>
+      <c r="D26" s="172">
+        <v>8.3487218640498795E-2</v>
+      </c>
+      <c r="E26" s="172">
+        <v>4.2852767774054401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/final_metal_oxide_properties.xlsx
+++ b/final_metal_oxide_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleheen\Desktop\materials_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809E9B6-F15C-44B8-80FE-5FE9039E7064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A2B90-F39E-4BF7-8AA8-FFC8A3BAC158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" firstSheet="1" activeTab="7" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" firstSheet="1" activeTab="6" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="reduced_properties" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="633">
   <si>
     <t>Ac2O3</t>
   </si>
@@ -1918,6 +1918,45 @@
   </si>
   <si>
     <t>bulk_vacancy_formation_energy (eV)</t>
+  </si>
+  <si>
+    <t>Phase change</t>
+  </si>
+  <si>
+    <t>Fe2O3--&gt; Fe3O4</t>
+  </si>
+  <si>
+    <t>Fe3O4--&gt; Fe</t>
+  </si>
+  <si>
+    <t>Sb2O3--&gt; Sb</t>
+  </si>
+  <si>
+    <t>FeO--&gt; Fe</t>
+  </si>
+  <si>
+    <t>Bi2O3--&gt;Bi</t>
+  </si>
+  <si>
+    <t>Co3O4--&gt; CoO</t>
+  </si>
+  <si>
+    <t>CoO--&gt; Co</t>
+  </si>
+  <si>
+    <t>Sb2O4</t>
+  </si>
+  <si>
+    <t>SnO2--&gt;Sn</t>
+  </si>
+  <si>
+    <t>Unstable in air</t>
+  </si>
+  <si>
+    <t>tpr</t>
+  </si>
+  <si>
+    <t>activation_energy(kj/mole)</t>
   </si>
 </sst>
 </file>
@@ -2645,47 +2684,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2747,13 +2756,43 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2772,6 +2811,1505 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7680710471508517E-2"/>
+          <c:y val="0.15202508197782841"/>
+          <c:w val="0.86072218476779638"/>
+          <c:h val="0.75909396448652466"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bismuth</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0308439874054298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cobalt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-3.8362542594540999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.54624473259457296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$4:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Iron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-3.2670075425946798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6800129474054299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5016611374053901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Indium</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.1188442974054098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Manganese</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$11:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.30614277259456901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.51702027740543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4432239374053699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Molybdenum</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$14:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.54274209740549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7234189674054501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$14:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Antimony</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$16:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5824281774054001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0979680625945301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$16:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Tin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.33145475740548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Vanadium</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6440883274053699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Tungsten</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.2852767774054401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formation_energy_corr!$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C106-41C7-8A9D-7B842EFBE4FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="920572431"/>
+        <c:axId val="1012480607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="920572431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1012480607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1012480607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="920572431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10128040925577372"/>
+          <c:y val="1.5958457778984525E-2"/>
+          <c:w val="0.83463958094347113"/>
+          <c:h val="0.12689338401665304"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE62FD5-7F5F-4088-A2B2-878115224347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10213,8 +11751,8 @@
   <dimension ref="A1:AM298"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H107" sqref="H107"/>
+      <pane xSplit="3" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22063,8 +23601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A2E463-6762-41F6-AD47-79665BB1A48D}">
   <dimension ref="A1:X298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView topLeftCell="I118" workbookViewId="0">
+      <selection activeCell="S117" sqref="S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23086,7 +24624,7 @@
       </c>
     </row>
     <row r="19" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="140" t="s">
         <v>335</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -23154,7 +24692,7 @@
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="137"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -23198,7 +24736,7 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="137"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
@@ -25001,7 +26539,9 @@
         <v>365</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" s="2">
+        <v>1000</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -35616,8 +37156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B73BE9-3FFE-475D-A723-92CE87E67446}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47385,8 +48925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6790254-5CEC-4CFA-8812-D61E5E995C32}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47423,37 +48963,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="163" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="165" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="146">
+      <c r="C2" s="167">
         <v>3.3904109706261301E-2</v>
       </c>
       <c r="D2" s="127">
         <v>3.0308439874054298</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="172" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="147"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="129">
         <v>3.3239820074054398</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="138"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="172"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="163" t="s">
         <v>468</v>
       </c>
       <c r="B4" s="125">
@@ -47465,15 +49005,15 @@
       <c r="D4" s="130">
         <v>1.91862856740539</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="172" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="131" t="s">
         <v>576</v>
       </c>
@@ -47483,11 +49023,11 @@
       <c r="D5" s="133">
         <v>2.5098057874054498</v>
       </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="138"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="172"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="111" t="s">
         <v>577</v>
       </c>
@@ -47497,11 +49037,11 @@
       <c r="D6" s="129">
         <v>-1.12009968259455</v>
       </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="138"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="172"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="170" t="s">
         <v>469</v>
       </c>
       <c r="B7" s="54" t="s">
@@ -47513,13 +49053,13 @@
       <c r="D7" s="56">
         <v>2.3577677274054101</v>
       </c>
-      <c r="E7" s="158" t="s">
+      <c r="E7" s="148" t="s">
         <v>601</v>
       </c>
-      <c r="F7" s="138"/>
+      <c r="F7" s="172"/>
     </row>
     <row r="8" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150"/>
+      <c r="A8" s="171"/>
       <c r="B8" s="57" t="s">
         <v>579</v>
       </c>
@@ -47529,11 +49069,11 @@
       <c r="D8" s="59">
         <v>-3.8362542594540999E-2</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="138"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="172"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="141" t="s">
         <v>470</v>
       </c>
       <c r="B9" s="125">
@@ -47545,13 +49085,13 @@
       <c r="D9" s="127">
         <v>0.57635066740544905</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="138"/>
+      <c r="F9" s="172"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="48" t="s">
         <v>576</v>
       </c>
@@ -47561,11 +49101,11 @@
       <c r="D10" s="62">
         <v>1.83464093740545</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="138"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="172"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="63" t="s">
         <v>577</v>
       </c>
@@ -47575,11 +49115,11 @@
       <c r="D11" s="65">
         <v>-0.54624473259457296</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="138"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="156" t="s">
         <v>471</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -47591,13 +49131,13 @@
       <c r="D12" s="67">
         <v>4.0221599874054101</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F12" s="139"/>
+      <c r="F12" s="173"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="71" t="s">
         <v>581</v>
       </c>
@@ -47607,11 +49147,11 @@
       <c r="D13" s="72">
         <v>-3.2670075425946798</v>
       </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="139"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="173"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="158" t="s">
         <v>472</v>
       </c>
       <c r="B14" s="114" t="s">
@@ -47623,13 +49163,13 @@
       <c r="D14" s="116">
         <v>1.6800129474054299</v>
       </c>
-      <c r="E14" s="160" t="s">
+      <c r="E14" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="139"/>
+      <c r="F14" s="173"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="169"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="111" t="s">
         <v>583</v>
       </c>
@@ -47639,11 +49179,11 @@
       <c r="D15" s="113">
         <v>1.8519125174054201</v>
       </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="139"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="173"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="143" t="s">
         <v>473</v>
       </c>
       <c r="B16" s="54">
@@ -47655,13 +49195,13 @@
       <c r="D16" s="56">
         <v>3.6845018674054302</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="172"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="48" t="s">
         <v>576</v>
       </c>
@@ -47671,11 +49211,11 @@
       <c r="D17" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="161"/>
-      <c r="F17" s="138"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="172"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="73" t="s">
         <v>577</v>
       </c>
@@ -47685,8 +49225,8 @@
       <c r="D18" s="75">
         <v>2.5016611374053901</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="138"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="172"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120" t="s">
@@ -47709,7 +49249,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="161" t="s">
         <v>475</v>
       </c>
       <c r="B20" s="54">
@@ -47721,13 +49261,13 @@
       <c r="D20" s="56">
         <v>2.5408861074054099</v>
       </c>
-      <c r="E20" s="163" t="s">
+      <c r="E20" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="138"/>
+      <c r="F20" s="172"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="141"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="117">
         <v>111</v>
       </c>
@@ -47737,8 +49277,8 @@
       <c r="D21" s="119">
         <v>2.1188442974054098</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="138"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="172"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
@@ -47759,7 +49299,7 @@
       <c r="F22" s="98"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="141" t="s">
         <v>477</v>
       </c>
       <c r="B23" s="81" t="s">
@@ -47771,13 +49311,13 @@
       <c r="D23" s="61">
         <v>1.51702027740543</v>
       </c>
-      <c r="E23" s="163" t="s">
+      <c r="E23" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="139"/>
+      <c r="F23" s="173"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="68" t="s">
         <v>592</v>
       </c>
@@ -47787,8 +49327,8 @@
       <c r="D24" s="70">
         <v>2.6014975474054101</v>
       </c>
-      <c r="E24" s="164"/>
-      <c r="F24" s="139"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="173"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="90" t="s">
@@ -48055,7 +49595,7 @@
       <c r="F38" s="98"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="153" t="s">
+      <c r="A39" s="143" t="s">
         <v>492</v>
       </c>
       <c r="B39" s="66" t="s">
@@ -48067,13 +49607,13 @@
       <c r="D39" s="67">
         <v>5.2656480574054196</v>
       </c>
-      <c r="E39" s="163" t="s">
+      <c r="E39" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="F39" s="139"/>
+      <c r="F39" s="173"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="154"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="96" t="s">
         <v>589</v>
       </c>
@@ -48083,8 +49623,8 @@
       <c r="D40" s="107">
         <v>2.3158929874053902</v>
       </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="139"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="173"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76" t="s">
@@ -48106,6 +49646,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="E2:E3"/>
@@ -48122,22 +49678,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -48146,466 +49686,599 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE504C2-276F-4DD2-8CA4-71E542FA2032}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="171" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="171" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="171" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="172" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="172" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="171"/>
+    <col min="1" max="1" width="12.85546875" style="137" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="137" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="137" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="138" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="138" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="137" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="137" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="137" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="137" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="137" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="138" t="s">
         <v>617</v>
       </c>
-      <c r="E1" s="172" t="s">
+      <c r="E1" s="138" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="F1" s="137" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1" s="137" t="s">
+        <v>632</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="172">
+      <c r="B2" s="138">
         <v>-2.05993110717329</v>
       </c>
-      <c r="C2" s="172">
+      <c r="C2" s="138">
         <v>3.03645521740544</v>
       </c>
-      <c r="D2" s="172">
+      <c r="D2" s="138">
         <v>3.3904109706261301E-2</v>
       </c>
-      <c r="E2" s="172">
+      <c r="E2" s="138">
         <v>3.0308439874054298</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="F2" s="137">
+        <v>477</v>
+      </c>
+      <c r="G2" s="137">
+        <v>85</v>
+      </c>
+      <c r="H2" s="137" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="172">
+      <c r="B3" s="138">
         <v>-2.0627486946581599</v>
       </c>
-      <c r="C3" s="172">
+      <c r="C3" s="138">
         <v>3.14684491740543</v>
       </c>
-      <c r="D3" s="172">
+      <c r="D3" s="138">
         <v>0.269542600903181</v>
       </c>
-      <c r="E3" s="173">
+      <c r="E3" s="139">
         <v>-1.12009968259455</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="F3" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="172">
+      <c r="B4" s="138">
         <v>-0.28635675849167702</v>
       </c>
-      <c r="C4" s="172">
+      <c r="C4" s="138">
         <v>1.9749163874054401</v>
       </c>
-      <c r="D4" s="172">
+      <c r="D4" s="138">
         <v>0.244539410765303</v>
       </c>
-      <c r="E4" s="172">
+      <c r="E4" s="138">
         <v>-3.8362542594540999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+      <c r="F4" s="137">
+        <v>300</v>
+      </c>
+      <c r="H4" s="137" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="172">
+      <c r="B5" s="138">
         <v>0.15461536781290999</v>
       </c>
-      <c r="C5" s="172">
+      <c r="C5" s="138">
         <v>3.88271770740544</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="138">
         <v>0.15876409968765501</v>
       </c>
-      <c r="E5" s="173">
+      <c r="E5" s="139">
         <v>-0.54624473259457296</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
+      <c r="F5" s="137">
+        <v>400</v>
+      </c>
+      <c r="H5" s="137" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="172">
+      <c r="B6" s="138">
         <v>-0.61862350960994095</v>
       </c>
-      <c r="C6" s="172">
+      <c r="C6" s="138">
         <v>3.3027707674054301</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="138">
         <v>0.37717382066015598</v>
       </c>
-      <c r="E6" s="172">
+      <c r="E6" s="138">
         <v>-3.2670075425946798</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="171" t="s">
+      <c r="F6" s="2">
+        <v>320</v>
+      </c>
+      <c r="G6" s="137">
+        <v>70</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="172">
+      <c r="B7" s="138">
         <v>-0.48480478238550301</v>
       </c>
-      <c r="C7" s="172">
+      <c r="C7" s="138">
         <v>3.0595893874054201</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="138">
         <v>0.15602959110056999</v>
       </c>
-      <c r="E7" s="172">
+      <c r="E7" s="138">
         <v>1.6800129474054299</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="171" t="s">
+      <c r="F7" s="2">
+        <v>475</v>
+      </c>
+      <c r="G7" s="137">
+        <v>55</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="172">
+      <c r="B8" s="138">
         <v>0.10335720262114099</v>
       </c>
-      <c r="C8" s="172">
+      <c r="C8" s="138">
         <v>4.3747270074054398</v>
       </c>
-      <c r="D8" s="172">
+      <c r="D8" s="138">
         <v>-6.5601907175453396E-3</v>
       </c>
-      <c r="E8" s="173">
+      <c r="E8" s="139">
         <v>2.5016611374053901</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="171" t="s">
+      <c r="F8" s="2">
+        <v>475</v>
+      </c>
+      <c r="G8" s="137">
+        <v>104</v>
+      </c>
+      <c r="H8" s="137" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="172">
+      <c r="B9" s="138">
         <v>-2.4285330681078698</v>
       </c>
-      <c r="C9" s="172">
+      <c r="C9" s="138">
         <v>3.0922237174054299</v>
       </c>
-      <c r="D9" s="172">
+      <c r="D9" s="138">
         <v>0.124803014354723</v>
       </c>
-      <c r="E9" s="173">
+      <c r="E9" s="139">
         <v>2.7846094374053698</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="171" t="s">
+      <c r="F9" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="172">
+      <c r="B10" s="138">
         <v>-2.6646097334453098</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="138" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="172">
+      <c r="D10" s="138">
         <v>0.108073993148637</v>
       </c>
-      <c r="E10" s="173">
+      <c r="E10" s="139">
         <v>2.1188442974054098</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="F10" s="137">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="172">
+      <c r="B11" s="138">
         <v>-1.57324684073997</v>
       </c>
-      <c r="C11" s="172">
+      <c r="C11" s="138">
         <v>2.1743416374054001</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="138">
         <v>0.42132970300595002</v>
       </c>
-      <c r="E11" s="172">
+      <c r="E11" s="138">
         <v>-0.30614277259456901</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="171" t="s">
+      <c r="F11" s="137">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="172">
+      <c r="B12" s="138">
         <v>-1.56785432271928</v>
       </c>
-      <c r="C12" s="172">
+      <c r="C12" s="138">
         <v>2.6897796274054402</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="138">
         <v>0.14058912840377499</v>
       </c>
-      <c r="E12" s="172">
+      <c r="E12" s="138">
         <v>1.51702027740543</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
+      <c r="F12" s="137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="172">
+      <c r="B13" s="138">
         <v>-1.6086314186572299</v>
       </c>
-      <c r="C13" s="172">
+      <c r="C13" s="138">
         <v>4.7865577574054399</v>
       </c>
-      <c r="D13" s="172">
+      <c r="D13" s="138">
         <v>8.9729637784239993E-2</v>
       </c>
-      <c r="E13" s="172">
+      <c r="E13" s="138">
         <v>4.4432239374053699</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="171" t="s">
+      <c r="F13" s="137">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="172">
+      <c r="B14" s="138">
         <v>-0.75224628676349903</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="138">
         <v>4.8136223274054499</v>
       </c>
-      <c r="D14" s="172">
+      <c r="D14" s="138">
         <v>0.204857357893384</v>
       </c>
-      <c r="E14" s="172">
+      <c r="E14" s="138">
         <v>3.54274209740549</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="171" t="s">
+      <c r="F14" s="137">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="172">
+      <c r="B15" s="138">
         <v>-0.94435939114414502</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="138">
         <v>3.05283259740545</v>
       </c>
-      <c r="D15" s="172">
+      <c r="D15" s="138">
         <v>-0.14093733148086199</v>
       </c>
-      <c r="E15" s="172">
+      <c r="E15" s="138">
         <v>2.7234189674054501</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="171" t="s">
+      <c r="F15" s="137">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="172">
+      <c r="B16" s="138">
         <v>-2.2679323080990801</v>
       </c>
-      <c r="C16" s="172">
+      <c r="C16" s="138">
         <v>3.2920384774054399</v>
       </c>
-      <c r="D16" s="172">
+      <c r="D16" s="138">
         <v>6.4521514360412494E-2</v>
       </c>
-      <c r="E16" s="172">
+      <c r="E16" s="138">
         <v>1.5824281774054001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="171" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="172">
+      <c r="F16" s="137">
+        <v>550</v>
+      </c>
+      <c r="G16" s="137">
+        <v>62.76</v>
+      </c>
+      <c r="H16" s="137" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="137" t="s">
+        <v>628</v>
+      </c>
+      <c r="B17" s="138">
         <v>-2.0928295573006701</v>
       </c>
-      <c r="C17" s="172">
+      <c r="C17" s="138">
         <v>2.3068136074054402</v>
       </c>
-      <c r="D17" s="172">
+      <c r="D17" s="138">
         <v>2.36465648743483E-2</v>
       </c>
-      <c r="E17" s="172">
+      <c r="E17" s="138">
         <v>-1.0979680625945301</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="171" t="s">
+      <c r="F17" s="137">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="172">
+      <c r="B18" s="138">
         <v>-2.5560708781736401</v>
       </c>
-      <c r="C18" s="172">
+      <c r="C18" s="138">
         <v>3.4109907274054398</v>
       </c>
-      <c r="D18" s="172">
+      <c r="D18" s="138">
         <v>4.4790606214817202E-2</v>
       </c>
-      <c r="E18" s="172">
+      <c r="E18" s="138">
         <v>2.5795764374054202</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="171" t="s">
+      <c r="F18" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="172">
+      <c r="B19" s="138">
         <v>-2.5884871133272802</v>
       </c>
-      <c r="C19" s="172">
+      <c r="C19" s="138">
         <v>3.23383048740543</v>
       </c>
-      <c r="D19" s="172">
+      <c r="D19" s="138">
         <v>1.19721945732916E-2</v>
       </c>
-      <c r="E19" s="172">
+      <c r="E19" s="138">
         <v>2.33145475740548</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="171" t="s">
+      <c r="F19" s="137">
+        <v>600</v>
+      </c>
+      <c r="G19" s="137">
+        <v>62.5</v>
+      </c>
+      <c r="H19" s="137" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="172">
+      <c r="B20" s="138">
         <v>-2.4742622903663598</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="138">
         <v>3.23532651740544</v>
       </c>
-      <c r="D20" s="172">
+      <c r="D20" s="138">
         <v>-2.4514926757940601E-4</v>
       </c>
-      <c r="E20" s="172">
+      <c r="E20" s="138">
         <v>3.69205014740538</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="171" t="s">
+      <c r="F20" s="137" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="137" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="172">
+      <c r="B21" s="138">
         <v>-1.567924493342</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="138">
         <v>2.70142826740544</v>
       </c>
-      <c r="D21" s="172">
+      <c r="D21" s="138">
         <v>6.1160966190277897E-3</v>
       </c>
-      <c r="E21" s="172">
+      <c r="E21" s="138">
         <v>1.9454189574054199</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
+      <c r="F21" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="172">
+      <c r="B22" s="138">
         <v>-1.8896498142260001</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="138">
         <v>1.3789851174054399</v>
       </c>
-      <c r="D22" s="172">
+      <c r="D22" s="138">
         <v>-9.9338640216688701E-2</v>
       </c>
-      <c r="E22" s="172">
+      <c r="E22" s="138">
         <v>1.6440883274053699</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="171" t="s">
+      <c r="F22" s="137">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="B23" s="172">
+      <c r="B23" s="138">
         <v>-2.3167328341362801</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="138">
         <v>4.6105982474054397</v>
       </c>
-      <c r="D23" s="172">
+      <c r="D23" s="138">
         <v>8.1780585302742098E-2</v>
       </c>
-      <c r="E23" s="172">
+      <c r="E23" s="138">
         <v>2.4371837874053801</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="171" t="s">
+      <c r="F23" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="172">
+      <c r="B24" s="138">
         <v>-1.9827880216179401</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="138">
         <v>1.63996525740543</v>
       </c>
-      <c r="D24" s="172">
+      <c r="D24" s="138">
         <v>-8.0581676791333205E-3</v>
       </c>
-      <c r="E24" s="172">
+      <c r="E24" s="138">
         <v>1.99464387740545</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="171" t="s">
+      <c r="F24" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="172">
+      <c r="B25" s="138">
         <v>-7.7828179942835002E-2</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="138">
         <v>5.41741480740545</v>
       </c>
-      <c r="D25" s="172">
+      <c r="D25" s="138">
         <v>-0.116880126830938</v>
       </c>
-      <c r="E25" s="172">
+      <c r="E25" s="138">
         <v>2.3158929874053902</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="F25" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="B26" s="172">
+      <c r="B26" s="138">
         <v>-0.801284650347036</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="138">
         <v>4.4696641674054503</v>
       </c>
-      <c r="D26" s="172">
+      <c r="D26" s="138">
         <v>8.3487218640498795E-2</v>
       </c>
-      <c r="E26" s="172">
+      <c r="E26" s="138">
         <v>4.2852767774054401</v>
+      </c>
+      <c r="F26" s="137">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/final_metal_oxide_properties.xlsx
+++ b/final_metal_oxide_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleheen\Desktop\materials_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A2B90-F39E-4BF7-8AA8-FFC8A3BAC158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8663DB2B-0AB9-40BF-9643-DB6BD69DAAA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" firstSheet="1" activeTab="6" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" firstSheet="2" activeTab="8" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="reduced_properties" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="goxide_mp" sheetId="7" r:id="rId6"/>
     <sheet name="surface_formation_energy" sheetId="6" r:id="rId7"/>
     <sheet name="formation_energy_corr" sheetId="8" r:id="rId8"/>
+    <sheet name="oxides_caviness" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oxide_pairs!$A$1:$X$298</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="635">
   <si>
     <t>Ac2O3</t>
   </si>
@@ -1958,6 +1959,25 @@
   <si>
     <t>activation_energy(kj/mole)</t>
   </si>
+  <si>
+    <r>
+      <t>MoO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>delG_reaction_873K</t>
+  </si>
 </sst>
 </file>
 
@@ -1966,7 +1986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2046,6 +2066,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2696,6 +2724,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2754,45 +2821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -48925,7 +48953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6790254-5CEC-4CFA-8812-D61E5E995C32}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -48963,37 +48991,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="145" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="147" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="167">
+      <c r="C2" s="149">
         <v>3.3904109706261301E-2</v>
       </c>
       <c r="D2" s="127">
         <v>3.0308439874054298</v>
       </c>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="172" t="s">
+      <c r="F2" s="141" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="168"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="150"/>
       <c r="D3" s="129">
         <v>3.3239820074054398</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="172"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="145" t="s">
         <v>468</v>
       </c>
       <c r="B4" s="125">
@@ -49005,15 +49033,15 @@
       <c r="D4" s="130">
         <v>1.91862856740539</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="141" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="169"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="131" t="s">
         <v>576</v>
       </c>
@@ -49023,11 +49051,11 @@
       <c r="D5" s="133">
         <v>2.5098057874054498</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="172"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
+      <c r="A6" s="146"/>
       <c r="B6" s="111" t="s">
         <v>577</v>
       </c>
@@ -49037,11 +49065,11 @@
       <c r="D6" s="129">
         <v>-1.12009968259455</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="172"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="152" t="s">
         <v>469</v>
       </c>
       <c r="B7" s="54" t="s">
@@ -49053,13 +49081,13 @@
       <c r="D7" s="56">
         <v>2.3577677274054101</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="161" t="s">
         <v>601</v>
       </c>
-      <c r="F7" s="172"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="57" t="s">
         <v>579</v>
       </c>
@@ -49069,11 +49097,11 @@
       <c r="D8" s="59">
         <v>-3.8362542594540999E-2</v>
       </c>
-      <c r="E8" s="149"/>
-      <c r="F8" s="172"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="154" t="s">
         <v>470</v>
       </c>
       <c r="B9" s="125">
@@ -49085,13 +49113,13 @@
       <c r="D9" s="127">
         <v>0.57635066740544905</v>
       </c>
-      <c r="E9" s="150" t="s">
+      <c r="E9" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="172"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
+      <c r="A10" s="168"/>
       <c r="B10" s="48" t="s">
         <v>576</v>
       </c>
@@ -49101,11 +49129,11 @@
       <c r="D10" s="62">
         <v>1.83464093740545</v>
       </c>
-      <c r="E10" s="151"/>
-      <c r="F10" s="172"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="63" t="s">
         <v>577</v>
       </c>
@@ -49115,11 +49143,11 @@
       <c r="D11" s="65">
         <v>-0.54624473259457296</v>
       </c>
-      <c r="E11" s="152"/>
-      <c r="F11" s="172"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="169" t="s">
         <v>471</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -49131,13 +49159,13 @@
       <c r="D12" s="67">
         <v>4.0221599874054101</v>
       </c>
-      <c r="E12" s="150" t="s">
+      <c r="E12" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="F12" s="173"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="71" t="s">
         <v>581</v>
       </c>
@@ -49147,11 +49175,11 @@
       <c r="D13" s="72">
         <v>-3.2670075425946798</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="173"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="171" t="s">
         <v>472</v>
       </c>
       <c r="B14" s="114" t="s">
@@ -49163,13 +49191,13 @@
       <c r="D14" s="116">
         <v>1.6800129474054299</v>
       </c>
-      <c r="E14" s="150" t="s">
+      <c r="E14" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="173"/>
+      <c r="F14" s="142"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="159"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="111" t="s">
         <v>583</v>
       </c>
@@ -49179,11 +49207,11 @@
       <c r="D15" s="113">
         <v>1.8519125174054201</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="173"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="142"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="156" t="s">
         <v>473</v>
       </c>
       <c r="B16" s="54">
@@ -49195,13 +49223,13 @@
       <c r="D16" s="56">
         <v>3.6845018674054302</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="F16" s="172"/>
+      <c r="F16" s="141"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="48" t="s">
         <v>576</v>
       </c>
@@ -49211,11 +49239,11 @@
       <c r="D17" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="172"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="141"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
+      <c r="A18" s="157"/>
       <c r="B18" s="73" t="s">
         <v>577</v>
       </c>
@@ -49225,8 +49253,8 @@
       <c r="D18" s="75">
         <v>2.5016611374053901</v>
       </c>
-      <c r="E18" s="152"/>
-      <c r="F18" s="172"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120" t="s">
@@ -49249,7 +49277,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="143" t="s">
         <v>475</v>
       </c>
       <c r="B20" s="54">
@@ -49261,13 +49289,13 @@
       <c r="D20" s="56">
         <v>2.5408861074054099</v>
       </c>
-      <c r="E20" s="153" t="s">
+      <c r="E20" s="166" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="172"/>
+      <c r="F20" s="141"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
+      <c r="A21" s="144"/>
       <c r="B21" s="117">
         <v>111</v>
       </c>
@@ -49277,8 +49305,8 @@
       <c r="D21" s="119">
         <v>2.1188442974054098</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="172"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="141"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
@@ -49299,7 +49327,7 @@
       <c r="F22" s="98"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="154" t="s">
         <v>477</v>
       </c>
       <c r="B23" s="81" t="s">
@@ -49311,13 +49339,13 @@
       <c r="D23" s="61">
         <v>1.51702027740543</v>
       </c>
-      <c r="E23" s="153" t="s">
+      <c r="E23" s="166" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="173"/>
+      <c r="F23" s="142"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="142"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="68" t="s">
         <v>592</v>
       </c>
@@ -49327,8 +49355,8 @@
       <c r="D24" s="70">
         <v>2.6014975474054101</v>
       </c>
-      <c r="E24" s="154"/>
-      <c r="F24" s="173"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="142"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="90" t="s">
@@ -49595,7 +49623,7 @@
       <c r="F38" s="98"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="156" t="s">
         <v>492</v>
       </c>
       <c r="B39" s="66" t="s">
@@ -49607,13 +49635,13 @@
       <c r="D39" s="67">
         <v>5.2656480574054196</v>
       </c>
-      <c r="E39" s="153" t="s">
+      <c r="E39" s="166" t="s">
         <v>327</v>
       </c>
-      <c r="F39" s="173"/>
+      <c r="F39" s="142"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="144"/>
+      <c r="A40" s="157"/>
       <c r="B40" s="96" t="s">
         <v>589</v>
       </c>
@@ -49623,8 +49651,8 @@
       <c r="D40" s="107">
         <v>2.3158929874053902</v>
       </c>
-      <c r="E40" s="154"/>
-      <c r="F40" s="173"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="142"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76" t="s">
@@ -49646,22 +49674,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="E2:E3"/>
@@ -49678,6 +49690,22 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -50281,4 +50309,105 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72E40A6-F72F-48F4-96BA-3A88FF96F5FE}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="45"/>
+    <col min="2" max="2" width="29.5703125" style="45" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="43">
+        <v>1.9959642733777001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="43">
+        <v>-1.8322418780476999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" s="43">
+        <v>-3.0168687280945998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="43">
+        <v>-0.65181310217459998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="43">
+        <v>-0.39273632292267002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="43">
+        <v>-1.2050763907285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="43">
+        <v>-0.40762478490050003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="43">
+        <v>0.30108112224074002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="43">
+        <v>-2.7234691085163001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/final_metal_oxide_properties.xlsx
+++ b/final_metal_oxide_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleheen\Desktop\materials_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8663DB2B-0AB9-40BF-9643-DB6BD69DAAA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436EE56-0061-4F9F-AF4E-9E5D71DA531B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" firstSheet="2" activeTab="8" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" firstSheet="2" activeTab="9" xr2:uid="{A4A5F5A1-0C63-45A1-9EB4-51F055D8EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="reduced_properties" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="surface_formation_energy" sheetId="6" r:id="rId7"/>
     <sheet name="formation_energy_corr" sheetId="8" r:id="rId8"/>
     <sheet name="oxides_caviness" sheetId="9" r:id="rId9"/>
+    <sheet name="final_list" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oxide_pairs!$A$1:$X$298</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="636">
   <si>
     <t>Ac2O3</t>
   </si>
@@ -1978,6 +1979,9 @@
   <si>
     <t>delG_reaction_873K</t>
   </si>
+  <si>
+    <t>Dec, wiki</t>
+  </si>
 </sst>
 </file>
 
@@ -1986,7 +1990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2073,6 +2077,13 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2304,7 +2315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2724,45 +2735,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2822,6 +2794,87 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11774,16 +11827,1657 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FF4D29-F1AF-4199-A9B0-9C2987E182F2}">
+  <dimension ref="A1:T26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="187" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="186" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" s="186" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="186" t="s">
+        <v>501</v>
+      </c>
+      <c r="G1" s="186" t="s">
+        <v>502</v>
+      </c>
+      <c r="H1" s="186" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="186" t="s">
+        <v>504</v>
+      </c>
+      <c r="J1" s="186" t="s">
+        <v>506</v>
+      </c>
+      <c r="K1" s="186" t="s">
+        <v>512</v>
+      </c>
+      <c r="L1" s="186" t="s">
+        <v>513</v>
+      </c>
+      <c r="M1" s="186" t="s">
+        <v>515</v>
+      </c>
+      <c r="N1" s="186" t="s">
+        <v>516</v>
+      </c>
+      <c r="O1" s="186" t="s">
+        <v>350</v>
+      </c>
+      <c r="P1" s="184" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q1" s="184" t="s">
+        <v>619</v>
+      </c>
+      <c r="R1" s="185" t="s">
+        <v>617</v>
+      </c>
+      <c r="S1" s="185" t="s">
+        <v>618</v>
+      </c>
+      <c r="T1" s="184" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C2" s="182">
+        <v>-0.18</v>
+      </c>
+      <c r="D2" s="182">
+        <v>-2.78</v>
+      </c>
+      <c r="E2" s="182">
+        <v>4.09</v>
+      </c>
+      <c r="F2" s="182">
+        <v>3</v>
+      </c>
+      <c r="G2" s="181">
+        <v>30</v>
+      </c>
+      <c r="H2" s="181">
+        <v>54</v>
+      </c>
+      <c r="I2" s="182">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J2" s="182">
+        <v>-5.9480748302844999</v>
+      </c>
+      <c r="K2" s="182">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="L2" s="182">
+        <v>17.11</v>
+      </c>
+      <c r="M2" s="181">
+        <v>14</v>
+      </c>
+      <c r="N2" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="O2" s="181">
+        <v>817</v>
+      </c>
+      <c r="P2" s="138">
+        <v>-2.05993110717329</v>
+      </c>
+      <c r="Q2" s="138">
+        <v>3.03645521740544</v>
+      </c>
+      <c r="R2" s="138">
+        <v>3.3904109706261301E-2</v>
+      </c>
+      <c r="S2" s="138">
+        <v>3.0308439874054298</v>
+      </c>
+      <c r="T2" s="137">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C3" s="182">
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="D3" s="182">
+        <v>-2.411</v>
+      </c>
+      <c r="E3" s="182">
+        <v>3.266</v>
+      </c>
+      <c r="F3" s="182">
+        <v>2</v>
+      </c>
+      <c r="G3" s="181">
+        <v>45</v>
+      </c>
+      <c r="H3" s="181">
+        <v>126</v>
+      </c>
+      <c r="I3" s="182">
+        <v>0</v>
+      </c>
+      <c r="J3" s="182">
+        <v>-2.6781364979012281</v>
+      </c>
+      <c r="K3" s="182">
+        <v>7.79</v>
+      </c>
+      <c r="L3" s="182">
+        <v>13.685</v>
+      </c>
+      <c r="M3" s="181">
+        <v>225</v>
+      </c>
+      <c r="N3" s="181" t="s">
+        <v>528</v>
+      </c>
+      <c r="O3" s="181">
+        <v>1430</v>
+      </c>
+      <c r="P3" s="138">
+        <v>-2.0627486946581599</v>
+      </c>
+      <c r="Q3" s="138">
+        <v>3.14684491740543</v>
+      </c>
+      <c r="R3" s="138">
+        <v>0.269542600903181</v>
+      </c>
+      <c r="S3" s="139">
+        <v>-1.12009968259455</v>
+      </c>
+      <c r="T3" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="180" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="182">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="C4" s="182">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="D4" s="182">
+        <v>-2.6549999999999998</v>
+      </c>
+      <c r="E4" s="182">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="F4" s="182">
+        <v>2.67</v>
+      </c>
+      <c r="G4" s="181">
+        <v>61</v>
+      </c>
+      <c r="H4" s="181">
+        <v>166</v>
+      </c>
+      <c r="I4" s="182">
+        <v>0</v>
+      </c>
+      <c r="J4" s="182">
+        <v>-9.2345960511996683</v>
+      </c>
+      <c r="K4" s="182">
+        <v>5.93</v>
+      </c>
+      <c r="L4" s="182">
+        <v>9.6257142857142846</v>
+      </c>
+      <c r="M4" s="181">
+        <v>227</v>
+      </c>
+      <c r="N4" s="181" t="s">
+        <v>528</v>
+      </c>
+      <c r="O4" s="181">
+        <v>900</v>
+      </c>
+      <c r="P4" s="138">
+        <v>-0.28635675849167702</v>
+      </c>
+      <c r="Q4" s="138">
+        <v>1.9749163874054401</v>
+      </c>
+      <c r="R4" s="138">
+        <v>0.244539410765303</v>
+      </c>
+      <c r="S4" s="138">
+        <v>-3.8362542594540999E-2</v>
+      </c>
+      <c r="T4" s="137">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="182">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="C5" s="182">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="D5" s="182">
+        <v>-2.5430000000000001</v>
+      </c>
+      <c r="E5" s="182">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="F5" s="182">
+        <v>2</v>
+      </c>
+      <c r="G5" s="181">
+        <v>33</v>
+      </c>
+      <c r="H5" s="181">
+        <v>130</v>
+      </c>
+      <c r="I5" s="182">
+        <v>0.59</v>
+      </c>
+      <c r="J5" s="182">
+        <v>-2.4660000000000002</v>
+      </c>
+      <c r="K5" s="182">
+        <v>5.14</v>
+      </c>
+      <c r="L5" s="182">
+        <v>12.112500000000001</v>
+      </c>
+      <c r="M5" s="181">
+        <v>216</v>
+      </c>
+      <c r="N5" s="181" t="s">
+        <v>528</v>
+      </c>
+      <c r="O5" s="181">
+        <v>1830</v>
+      </c>
+      <c r="P5" s="138">
+        <v>0.15461536781290999</v>
+      </c>
+      <c r="Q5" s="138">
+        <v>3.88271770740544</v>
+      </c>
+      <c r="R5" s="138">
+        <v>0.15876409968765501</v>
+      </c>
+      <c r="S5" s="139">
+        <v>-0.54624473259457296</v>
+      </c>
+      <c r="T5" s="137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="180" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="182">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="C6" s="182">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="D6" s="182">
+        <v>-2.6720000000000002</v>
+      </c>
+      <c r="E6" s="182">
+        <v>5.1619999999999999</v>
+      </c>
+      <c r="F6" s="182">
+        <v>3</v>
+      </c>
+      <c r="G6" s="181">
+        <v>79</v>
+      </c>
+      <c r="H6" s="181">
+        <v>178</v>
+      </c>
+      <c r="I6" s="182">
+        <v>2.02</v>
+      </c>
+      <c r="J6" s="182">
+        <v>-8.5422604549930039</v>
+      </c>
+      <c r="K6" s="182">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="L6" s="182">
+        <v>10.74225</v>
+      </c>
+      <c r="M6" s="181">
+        <v>5</v>
+      </c>
+      <c r="N6" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="O6" s="181">
+        <v>1565</v>
+      </c>
+      <c r="P6" s="138">
+        <v>-0.61862350960994095</v>
+      </c>
+      <c r="Q6" s="138">
+        <v>3.3027707674054301</v>
+      </c>
+      <c r="R6" s="138">
+        <v>0.37717382066015598</v>
+      </c>
+      <c r="S6" s="138">
+        <v>-3.2670075425946798</v>
+      </c>
+      <c r="T6" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="182">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="C7" s="182">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="D7" s="182">
+        <v>-2.625</v>
+      </c>
+      <c r="E7" s="182">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="F7" s="182">
+        <v>2.67</v>
+      </c>
+      <c r="G7" s="181">
+        <v>64</v>
+      </c>
+      <c r="H7" s="181">
+        <v>176</v>
+      </c>
+      <c r="I7" s="182">
+        <v>0</v>
+      </c>
+      <c r="J7" s="182">
+        <v>-11.591439083795409</v>
+      </c>
+      <c r="K7" s="182">
+        <v>4.95</v>
+      </c>
+      <c r="L7" s="182">
+        <v>11.095714285714285</v>
+      </c>
+      <c r="M7" s="181">
+        <v>227</v>
+      </c>
+      <c r="N7" s="181" t="s">
+        <v>528</v>
+      </c>
+      <c r="O7" s="181">
+        <v>1597</v>
+      </c>
+      <c r="P7" s="138">
+        <v>-0.48480478238550301</v>
+      </c>
+      <c r="Q7" s="138">
+        <v>3.0595893874054201</v>
+      </c>
+      <c r="R7" s="138">
+        <v>0.15602959110056999</v>
+      </c>
+      <c r="S7" s="138">
+        <v>1.6800129474054299</v>
+      </c>
+      <c r="T7" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="180" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="182">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="C8" s="182">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="D8" s="182">
+        <v>-2.5089999999999999</v>
+      </c>
+      <c r="E8" s="182">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="F8" s="182">
+        <v>2</v>
+      </c>
+      <c r="G8" s="181">
+        <v>60</v>
+      </c>
+      <c r="H8" s="181">
+        <v>180</v>
+      </c>
+      <c r="I8" s="182">
+        <v>1.27</v>
+      </c>
+      <c r="J8" s="182">
+        <v>-2.8190910504223456</v>
+      </c>
+      <c r="K8" s="182">
+        <v>5.59</v>
+      </c>
+      <c r="L8" s="182">
+        <v>10.68</v>
+      </c>
+      <c r="M8" s="181">
+        <v>12</v>
+      </c>
+      <c r="N8" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="O8" s="181">
+        <v>1377</v>
+      </c>
+      <c r="P8" s="138">
+        <v>0.10335720262114099</v>
+      </c>
+      <c r="Q8" s="138">
+        <v>4.3747270074054398</v>
+      </c>
+      <c r="R8" s="138">
+        <v>-6.5601907175453396E-3</v>
+      </c>
+      <c r="S8" s="139">
+        <v>2.5016611374053901</v>
+      </c>
+      <c r="T8" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C9" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="D9" s="182">
+        <v>-2.8759999999999999</v>
+      </c>
+      <c r="E9" s="182">
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="F9" s="182">
+        <v>4</v>
+      </c>
+      <c r="G9" s="181">
+        <v>28</v>
+      </c>
+      <c r="H9" s="181">
+        <v>38</v>
+      </c>
+      <c r="I9" s="182">
+        <v>3.25</v>
+      </c>
+      <c r="J9" s="182">
+        <v>-6.0112970928123541</v>
+      </c>
+      <c r="K9" s="182">
+        <v>4.04</v>
+      </c>
+      <c r="L9" s="182">
+        <v>14.348888888888887</v>
+      </c>
+      <c r="M9" s="181">
+        <v>152</v>
+      </c>
+      <c r="N9" s="181" t="s">
+        <v>527</v>
+      </c>
+      <c r="O9" s="181">
+        <v>1115</v>
+      </c>
+      <c r="P9" s="138">
+        <v>-2.4285330681078698</v>
+      </c>
+      <c r="Q9" s="138">
+        <v>3.0922237174054299</v>
+      </c>
+      <c r="R9" s="138">
+        <v>0.124803014354723</v>
+      </c>
+      <c r="S9" s="139">
+        <v>2.7846094374053698</v>
+      </c>
+      <c r="T9" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="180" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C10" s="182">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D10" s="182">
+        <v>-2.6429999999999998</v>
+      </c>
+      <c r="E10" s="182">
+        <v>4.5860000000000003</v>
+      </c>
+      <c r="F10" s="182">
+        <v>3</v>
+      </c>
+      <c r="G10" s="181">
+        <v>58</v>
+      </c>
+      <c r="H10" s="181">
+        <v>145</v>
+      </c>
+      <c r="I10" s="182">
+        <v>0.93</v>
+      </c>
+      <c r="J10" s="182">
+        <v>-9.5952738767684096</v>
+      </c>
+      <c r="K10" s="182">
+        <v>6.75</v>
+      </c>
+      <c r="L10" s="182">
+        <v>13.6585</v>
+      </c>
+      <c r="M10" s="181">
+        <v>206</v>
+      </c>
+      <c r="N10" s="181" t="s">
+        <v>528</v>
+      </c>
+      <c r="O10" s="181">
+        <v>1912</v>
+      </c>
+      <c r="P10" s="138">
+        <v>-2.6646097334453098</v>
+      </c>
+      <c r="Q10" s="138" t="s">
+        <v>304</v>
+      </c>
+      <c r="R10" s="138">
+        <v>0.108073993148637</v>
+      </c>
+      <c r="S10" s="139">
+        <v>2.1188442974054098</v>
+      </c>
+      <c r="T10" s="137">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="182">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="C11" s="182">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="D11" s="182">
+        <v>-2.5009999999999999</v>
+      </c>
+      <c r="E11" s="182">
+        <v>4.76</v>
+      </c>
+      <c r="F11" s="182">
+        <v>3</v>
+      </c>
+      <c r="G11" s="181">
+        <v>51</v>
+      </c>
+      <c r="H11" s="181">
+        <v>150</v>
+      </c>
+      <c r="I11" s="182">
+        <v>0.11</v>
+      </c>
+      <c r="J11" s="182">
+        <v>-9.9393688138052543</v>
+      </c>
+      <c r="K11" s="182">
+        <v>4.72</v>
+      </c>
+      <c r="L11" s="182">
+        <v>11.105500000000001</v>
+      </c>
+      <c r="M11" s="181">
+        <v>61</v>
+      </c>
+      <c r="N11" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="O11" s="181">
+        <v>1080</v>
+      </c>
+      <c r="P11" s="138">
+        <v>-1.57324684073997</v>
+      </c>
+      <c r="Q11" s="138">
+        <v>2.1743416374054001</v>
+      </c>
+      <c r="R11" s="138">
+        <v>0.42132970300595002</v>
+      </c>
+      <c r="S11" s="138">
+        <v>-0.30614277259456901</v>
+      </c>
+      <c r="T11" s="137">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="180" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="182">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="C12" s="182">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="D12" s="182">
+        <v>-2.444</v>
+      </c>
+      <c r="E12" s="182">
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="F12" s="182">
+        <v>2.67</v>
+      </c>
+      <c r="G12" s="181">
+        <v>47</v>
+      </c>
+      <c r="H12" s="181">
+        <v>127</v>
+      </c>
+      <c r="I12" s="182">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="182">
+        <v>-14.383582940353422</v>
+      </c>
+      <c r="K12" s="182">
+        <v>4.59</v>
+      </c>
+      <c r="L12" s="182">
+        <v>11.818571428571429</v>
+      </c>
+      <c r="M12" s="181">
+        <v>141</v>
+      </c>
+      <c r="N12" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="O12" s="181">
+        <v>1567</v>
+      </c>
+      <c r="P12" s="138">
+        <v>-1.56785432271928</v>
+      </c>
+      <c r="Q12" s="138">
+        <v>2.6897796274054402</v>
+      </c>
+      <c r="R12" s="138">
+        <v>0.14058912840377499</v>
+      </c>
+      <c r="S12" s="138">
+        <v>1.51702027740543</v>
+      </c>
+      <c r="T12" s="137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="180" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="182">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="C13" s="182">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="D13" s="182">
+        <v>-2.3090000000000002</v>
+      </c>
+      <c r="E13" s="182">
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="F13" s="182">
+        <v>2</v>
+      </c>
+      <c r="G13" s="181">
+        <v>65</v>
+      </c>
+      <c r="H13" s="181">
+        <v>143</v>
+      </c>
+      <c r="I13" s="182">
+        <v>1.95</v>
+      </c>
+      <c r="J13" s="182">
+        <v>-3.9923304140539981</v>
+      </c>
+      <c r="K13" s="182">
+        <v>5.19</v>
+      </c>
+      <c r="L13" s="182">
+        <v>11.3475</v>
+      </c>
+      <c r="M13" s="181">
+        <v>225</v>
+      </c>
+      <c r="N13" s="181" t="s">
+        <v>528</v>
+      </c>
+      <c r="O13" s="181">
+        <v>1839</v>
+      </c>
+      <c r="P13" s="138">
+        <v>-1.6086314186572299</v>
+      </c>
+      <c r="Q13" s="138">
+        <v>4.7865577574054399</v>
+      </c>
+      <c r="R13" s="138">
+        <v>8.9729637784239993E-2</v>
+      </c>
+      <c r="S13" s="138">
+        <v>4.4432239374053699</v>
+      </c>
+      <c r="T13" s="137">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="180" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="182">
+        <v>-0.153</v>
+      </c>
+      <c r="C14" s="182">
+        <v>-0.153</v>
+      </c>
+      <c r="D14" s="182">
+        <v>-2.9460000000000002</v>
+      </c>
+      <c r="E14" s="182">
+        <v>6.149</v>
+      </c>
+      <c r="F14" s="182">
+        <v>4</v>
+      </c>
+      <c r="G14" s="181">
+        <v>89</v>
+      </c>
+      <c r="H14" s="181">
+        <v>219</v>
+      </c>
+      <c r="I14" s="182">
+        <v>0</v>
+      </c>
+      <c r="J14" s="182">
+        <v>-6.1035394102710265</v>
+      </c>
+      <c r="K14" s="182">
+        <v>5.8</v>
+      </c>
+      <c r="L14" s="182">
+        <v>12.204166666666666</v>
+      </c>
+      <c r="M14" s="181">
+        <v>136</v>
+      </c>
+      <c r="N14" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="O14" s="181">
+        <v>1100</v>
+      </c>
+      <c r="P14" s="138">
+        <v>-0.75224628676349903</v>
+      </c>
+      <c r="Q14" s="138">
+        <v>4.8136223274054499</v>
+      </c>
+      <c r="R14" s="138">
+        <v>0.204857357893384</v>
+      </c>
+      <c r="S14" s="138">
+        <v>3.54274209740549</v>
+      </c>
+      <c r="T14" s="137">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="180" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C15" s="182">
+        <v>-0.153</v>
+      </c>
+      <c r="D15" s="182">
+        <v>-3.0619999999999998</v>
+      </c>
+      <c r="E15" s="182">
+        <v>5.6840000000000002</v>
+      </c>
+      <c r="F15" s="182">
+        <v>6</v>
+      </c>
+      <c r="G15" s="181">
+        <v>36</v>
+      </c>
+      <c r="H15" s="181">
+        <v>33</v>
+      </c>
+      <c r="I15" s="182">
+        <v>1.37</v>
+      </c>
+      <c r="J15" s="182">
+        <v>-7.7224439031973882</v>
+      </c>
+      <c r="K15" s="182">
+        <v>4.12</v>
+      </c>
+      <c r="L15" s="182">
+        <v>14.508749999999999</v>
+      </c>
+      <c r="M15" s="181">
+        <v>14</v>
+      </c>
+      <c r="N15" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="O15" s="181">
+        <v>801</v>
+      </c>
+      <c r="P15" s="138">
+        <v>-0.94435939114414502</v>
+      </c>
+      <c r="Q15" s="138">
+        <v>3.05283259740545</v>
+      </c>
+      <c r="R15" s="138">
+        <v>-0.14093733148086199</v>
+      </c>
+      <c r="S15" s="138">
+        <v>2.7234189674054501</v>
+      </c>
+      <c r="T15" s="137">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C16" s="182">
+        <v>-0.186</v>
+      </c>
+      <c r="D16" s="182">
+        <v>-2.7970000000000002</v>
+      </c>
+      <c r="E16" s="182">
+        <v>4.431</v>
+      </c>
+      <c r="F16" s="182">
+        <v>3</v>
+      </c>
+      <c r="G16" s="181">
+        <v>20</v>
+      </c>
+      <c r="H16" s="181">
+        <v>19</v>
+      </c>
+      <c r="I16" s="182">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J16" s="182">
+        <v>-7.4654609524796598</v>
+      </c>
+      <c r="K16" s="182">
+        <v>5.36</v>
+      </c>
+      <c r="L16" s="182">
+        <v>18.076499999999999</v>
+      </c>
+      <c r="M16" s="181">
+        <v>56</v>
+      </c>
+      <c r="N16" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="O16" s="181">
+        <v>656</v>
+      </c>
+      <c r="P16" s="138">
+        <v>-2.2679323080990801</v>
+      </c>
+      <c r="Q16" s="138">
+        <v>3.2920384774054399</v>
+      </c>
+      <c r="R16" s="138">
+        <v>6.4521514360412494E-2</v>
+      </c>
+      <c r="S16" s="138">
+        <v>1.5824281774054001</v>
+      </c>
+      <c r="T16" s="137">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="180" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C17" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="D17" s="182">
+        <v>-2.895</v>
+      </c>
+      <c r="E17" s="182">
+        <v>4.5090000000000003</v>
+      </c>
+      <c r="F17" s="182">
+        <v>4</v>
+      </c>
+      <c r="G17" s="181">
+        <v>55</v>
+      </c>
+      <c r="H17" s="181">
+        <v>96</v>
+      </c>
+      <c r="I17" s="182">
+        <v>1.89</v>
+      </c>
+      <c r="J17" s="182">
+        <v>-9.4057107322381714</v>
+      </c>
+      <c r="K17" s="182">
+        <v>6.26</v>
+      </c>
+      <c r="L17" s="182">
+        <v>13.59375</v>
+      </c>
+      <c r="M17" s="181">
+        <v>33</v>
+      </c>
+      <c r="N17" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="O17" s="181">
+        <v>930</v>
+      </c>
+      <c r="P17" s="138">
+        <v>-2.0928295573006701</v>
+      </c>
+      <c r="Q17" s="138">
+        <v>2.3068136074054402</v>
+      </c>
+      <c r="R17" s="138">
+        <v>2.36465648743483E-2</v>
+      </c>
+      <c r="S17" s="138">
+        <v>-1.0979680625945301</v>
+      </c>
+      <c r="T17" s="137">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="180" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C18" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="D18" s="182">
+        <v>-2.6640000000000001</v>
+      </c>
+      <c r="E18" s="182">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="F18" s="182">
+        <v>2.4</v>
+      </c>
+      <c r="G18" s="181">
+        <v>28</v>
+      </c>
+      <c r="H18" s="181">
+        <v>79</v>
+      </c>
+      <c r="I18" s="182">
+        <v>1.76</v>
+      </c>
+      <c r="J18" s="182" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="182">
+        <v>5.7</v>
+      </c>
+      <c r="L18" s="182">
+        <v>18.272727272727273</v>
+      </c>
+      <c r="M18" s="181">
+        <v>14</v>
+      </c>
+      <c r="N18" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="O18" s="181" t="s">
+        <v>304</v>
+      </c>
+      <c r="P18" s="138">
+        <v>-2.5560708781736401</v>
+      </c>
+      <c r="Q18" s="138">
+        <v>3.4109907274054398</v>
+      </c>
+      <c r="R18" s="138">
+        <v>4.4790606214817202E-2</v>
+      </c>
+      <c r="S18" s="138">
+        <v>2.5795764374054202</v>
+      </c>
+      <c r="T18" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C19" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="D19" s="182">
+        <v>-2.8519999999999999</v>
+      </c>
+      <c r="E19" s="182">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="F19" s="182">
+        <v>4</v>
+      </c>
+      <c r="G19" s="181">
+        <v>87</v>
+      </c>
+      <c r="H19" s="181">
+        <v>172</v>
+      </c>
+      <c r="I19" s="182">
+        <v>0.65</v>
+      </c>
+      <c r="J19" s="182">
+        <v>-5.9859999999999998</v>
+      </c>
+      <c r="K19" s="182">
+        <v>6.61</v>
+      </c>
+      <c r="L19" s="182">
+        <v>12.621666666666668</v>
+      </c>
+      <c r="M19" s="181">
+        <v>136</v>
+      </c>
+      <c r="N19" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="O19" s="181">
+        <v>1630</v>
+      </c>
+      <c r="P19" s="138">
+        <v>-2.5884871133272802</v>
+      </c>
+      <c r="Q19" s="138">
+        <v>3.23383048740543</v>
+      </c>
+      <c r="R19" s="138">
+        <v>1.19721945732916E-2</v>
+      </c>
+      <c r="S19" s="138">
+        <v>2.33145475740548</v>
+      </c>
+      <c r="T19" s="137">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C20" s="182">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="D20" s="182">
+        <v>-2.597</v>
+      </c>
+      <c r="E20" s="182">
+        <v>4.5179999999999998</v>
+      </c>
+      <c r="F20" s="182">
+        <v>2</v>
+      </c>
+      <c r="G20" s="181">
+        <v>20</v>
+      </c>
+      <c r="H20" s="181">
+        <v>32</v>
+      </c>
+      <c r="I20" s="182">
+        <v>0.41</v>
+      </c>
+      <c r="J20" s="182">
+        <v>-2.9092605068145305</v>
+      </c>
+      <c r="K20" s="182">
+        <v>5.94</v>
+      </c>
+      <c r="L20" s="182">
+        <v>18.822500000000002</v>
+      </c>
+      <c r="M20" s="181">
+        <v>129</v>
+      </c>
+      <c r="N20" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="O20" s="181">
+        <v>1080</v>
+      </c>
+      <c r="P20" s="138">
+        <v>-2.4742622903663598</v>
+      </c>
+      <c r="Q20" s="138">
+        <v>3.23532651740544</v>
+      </c>
+      <c r="R20" s="138">
+        <v>-2.4514926757940601E-4</v>
+      </c>
+      <c r="S20" s="138">
+        <v>3.69205014740538</v>
+      </c>
+      <c r="T20" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C21" s="182">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="D21" s="182">
+        <v>-2.9180000000000001</v>
+      </c>
+      <c r="E21" s="182">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="F21" s="182">
+        <v>4</v>
+      </c>
+      <c r="G21" s="181">
+        <v>17</v>
+      </c>
+      <c r="H21" s="181">
+        <v>23</v>
+      </c>
+      <c r="I21" s="182">
+        <v>2.23</v>
+      </c>
+      <c r="J21" s="182">
+        <v>-3.3435249002435614</v>
+      </c>
+      <c r="K21" s="182">
+        <v>5.36</v>
+      </c>
+      <c r="L21" s="182">
+        <v>16.472916666666666</v>
+      </c>
+      <c r="M21" s="181">
+        <v>61</v>
+      </c>
+      <c r="N21" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="O21" s="181">
+        <v>733</v>
+      </c>
+      <c r="P21" s="138">
+        <v>-1.567924493342</v>
+      </c>
+      <c r="Q21" s="138">
+        <v>2.70142826740544</v>
+      </c>
+      <c r="R21" s="138">
+        <v>6.1160966190277897E-3</v>
+      </c>
+      <c r="S21" s="138">
+        <v>1.9454189574054199</v>
+      </c>
+      <c r="T21" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="180" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C22" s="182">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="D22" s="182">
+        <v>-2.7789999999999999</v>
+      </c>
+      <c r="E22" s="182">
+        <v>5.68</v>
+      </c>
+      <c r="F22" s="182">
+        <v>5</v>
+      </c>
+      <c r="G22" s="181">
+        <v>47</v>
+      </c>
+      <c r="H22" s="181">
+        <v>105</v>
+      </c>
+      <c r="I22" s="182">
+        <v>2.16</v>
+      </c>
+      <c r="J22" s="182">
+        <v>-16.070891848473856</v>
+      </c>
+      <c r="K22" s="182">
+        <v>3.15</v>
+      </c>
+      <c r="L22" s="182">
+        <v>13.677857142857144</v>
+      </c>
+      <c r="M22" s="181">
+        <v>59</v>
+      </c>
+      <c r="N22" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="O22" s="181">
+        <v>670</v>
+      </c>
+      <c r="P22" s="138">
+        <v>-1.8896498142260001</v>
+      </c>
+      <c r="Q22" s="138">
+        <v>1.3789851174054399</v>
+      </c>
+      <c r="R22" s="138">
+        <v>-9.9338640216688701E-2</v>
+      </c>
+      <c r="S22" s="138">
+        <v>1.6440883274053699</v>
+      </c>
+      <c r="T22" s="137">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="180" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="182">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="C23" s="182">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="D23" s="182">
+        <v>-2.6</v>
+      </c>
+      <c r="E23" s="182">
+        <v>6.14</v>
+      </c>
+      <c r="F23" s="182">
+        <v>3.33</v>
+      </c>
+      <c r="G23" s="181">
+        <v>85</v>
+      </c>
+      <c r="H23" s="181">
+        <v>185</v>
+      </c>
+      <c r="I23" s="182">
+        <v>0.95</v>
+      </c>
+      <c r="J23" s="182">
+        <v>-20.034202207597037</v>
+      </c>
+      <c r="K23" s="182">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L23" s="182">
+        <v>10.874375000000001</v>
+      </c>
+      <c r="M23" s="181">
+        <v>13</v>
+      </c>
+      <c r="N23" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="O23" s="181" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" s="138">
+        <v>-2.3167328341362801</v>
+      </c>
+      <c r="Q23" s="138">
+        <v>4.6105982474054397</v>
+      </c>
+      <c r="R23" s="138">
+        <v>8.1780585302742098E-2</v>
+      </c>
+      <c r="S23" s="138">
+        <v>2.4371837874053801</v>
+      </c>
+      <c r="T23" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="180" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="182">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="C24" s="182">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="D24" s="182">
+        <v>-2.7490000000000001</v>
+      </c>
+      <c r="E24" s="182">
+        <v>5.7919999999999998</v>
+      </c>
+      <c r="F24" s="182">
+        <v>4.67</v>
+      </c>
+      <c r="G24" s="181">
+        <v>53</v>
+      </c>
+      <c r="H24" s="181">
+        <v>118</v>
+      </c>
+      <c r="I24" s="182">
+        <v>1</v>
+      </c>
+      <c r="J24" s="182" t="s">
+        <v>304</v>
+      </c>
+      <c r="K24" s="182">
+        <v>3.42</v>
+      </c>
+      <c r="L24" s="182">
+        <v>12.875</v>
+      </c>
+      <c r="M24" s="181">
+        <v>15</v>
+      </c>
+      <c r="N24" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="O24" s="181" t="s">
+        <v>304</v>
+      </c>
+      <c r="P24" s="138">
+        <v>-1.9827880216179401</v>
+      </c>
+      <c r="Q24" s="138">
+        <v>1.63996525740543</v>
+      </c>
+      <c r="R24" s="138">
+        <v>-8.0581676791333205E-3</v>
+      </c>
+      <c r="S24" s="138">
+        <v>1.99464387740545</v>
+      </c>
+      <c r="T24" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="180" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="182">
+        <v>-0.221</v>
+      </c>
+      <c r="C25" s="182">
+        <v>-0.221</v>
+      </c>
+      <c r="D25" s="182">
+        <v>-3.0339999999999998</v>
+      </c>
+      <c r="E25" s="182">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="F25" s="182">
+        <v>4</v>
+      </c>
+      <c r="G25" s="181">
+        <v>75</v>
+      </c>
+      <c r="H25" s="181">
+        <v>229</v>
+      </c>
+      <c r="I25" s="182">
+        <v>1.25</v>
+      </c>
+      <c r="J25" s="182">
+        <v>-6.1118308545369748</v>
+      </c>
+      <c r="K25" s="182">
+        <v>9.6</v>
+      </c>
+      <c r="L25" s="182">
+        <v>12.442500000000001</v>
+      </c>
+      <c r="M25" s="181">
+        <v>136</v>
+      </c>
+      <c r="N25" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="O25" s="181">
+        <v>1500</v>
+      </c>
+      <c r="P25" s="138">
+        <v>-7.7828179942835002E-2</v>
+      </c>
+      <c r="Q25" s="138">
+        <v>5.41741480740545</v>
+      </c>
+      <c r="R25" s="138">
+        <v>-0.116880126830938</v>
+      </c>
+      <c r="S25" s="138">
+        <v>2.3158929874053902</v>
+      </c>
+      <c r="T25" s="137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="180" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="182">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C26" s="182">
+        <v>-0.221</v>
+      </c>
+      <c r="D26" s="182">
+        <v>-3.1309999999999998</v>
+      </c>
+      <c r="E26" s="182">
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="F26" s="182">
+        <v>6</v>
+      </c>
+      <c r="G26" s="181">
+        <v>125</v>
+      </c>
+      <c r="H26" s="181">
+        <v>223</v>
+      </c>
+      <c r="I26" s="182">
+        <v>1.33</v>
+      </c>
+      <c r="J26" s="182">
+        <v>-8.7360729647095408</v>
+      </c>
+      <c r="K26" s="182">
+        <v>6.69</v>
+      </c>
+      <c r="L26" s="182">
+        <v>14.393750000000001</v>
+      </c>
+      <c r="M26" s="181">
+        <v>60</v>
+      </c>
+      <c r="N26" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="O26" s="181">
+        <v>1472</v>
+      </c>
+      <c r="P26" s="138">
+        <v>-0.801284650347036</v>
+      </c>
+      <c r="Q26" s="138">
+        <v>4.4696641674054503</v>
+      </c>
+      <c r="R26" s="138">
+        <v>8.3487218640498795E-2</v>
+      </c>
+      <c r="S26" s="138">
+        <v>4.2852767774054401</v>
+      </c>
+      <c r="T26" s="137">
+        <v>875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7F45F8-123A-4E4C-ABDA-CB881035D068}">
-  <dimension ref="A1:AM298"/>
+  <dimension ref="A1:AQ298"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
+      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC1" sqref="AC1:AQ26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="45" style="1" customWidth="1"/>
@@ -11811,14 +13505,23 @@
     <col min="25" max="25" width="19.140625" style="16" customWidth="1"/>
     <col min="26" max="27" width="17.28515625" style="1" customWidth="1"/>
     <col min="28" max="28" width="19.140625" style="29" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" style="16" customWidth="1"/>
-    <col min="30" max="30" width="32.7109375" style="16" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="17.28515625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="30" max="30" width="12.28515625" style="16" customWidth="1"/>
+    <col min="31" max="31" width="9" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="1"/>
+    <col min="35" max="35" width="16.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="20.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="1"/>
+    <col min="40" max="40" width="14" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11" style="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5703125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>230</v>
       </c>
@@ -11899,19 +13602,53 @@
       </c>
       <c r="AA1" s="3"/>
       <c r="AB1" s="28"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+      <c r="AC1" s="137" t="s">
+        <v>615</v>
+      </c>
+      <c r="AD1" s="174" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE1" s="174" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="AI1" s="175" t="s">
+        <v>502</v>
+      </c>
+      <c r="AJ1" s="175" t="s">
+        <v>503</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM1" s="176" t="s">
+        <v>512</v>
+      </c>
+      <c r="AN1" s="176" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO1" s="177" t="s">
+        <v>515</v>
+      </c>
+      <c r="AP1" s="177" t="s">
+        <v>516</v>
+      </c>
+      <c r="AQ1" s="178" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -11976,18 +13713,67 @@
         <v>1977</v>
       </c>
       <c r="AA2" s="2"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="7"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC2" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="179">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.18</v>
+      </c>
+      <c r="AF2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,4,FALSE))</f>
+        <v>-2.78</v>
+      </c>
+      <c r="AG2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,5,FALSE))</f>
+        <v>4.09</v>
+      </c>
+      <c r="AH2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,6,FALSE))</f>
+        <v>3</v>
+      </c>
+      <c r="AI2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,7,FALSE))</f>
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,8,FALSE))</f>
+        <v>54</v>
+      </c>
+      <c r="AK2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,9,FALSE))</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AL2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,10,FALSE))</f>
+        <v>-5.9480748302844999</v>
+      </c>
+      <c r="AM2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,18,FALSE))</f>
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="AN2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,19,FALSE))</f>
+        <v>17.11</v>
+      </c>
+      <c r="AO2" s="29">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,21,FALSE))</f>
+        <v>14</v>
+      </c>
+      <c r="AP2" s="18" t="str">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,23,FALSE))</f>
+        <v>monoclinic</v>
+      </c>
+      <c r="AQ2" s="18">
+        <f>IF(VLOOKUP($AC2,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC2,$C$2:$Z$154,24,FALSE))</f>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -12050,18 +13836,67 @@
         <v>200</v>
       </c>
       <c r="AA3" s="2"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="7"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC3" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="179">
+        <f t="shared" ref="AD3:AD19" si="0">IF(VLOOKUP($AC3,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE3" s="18">
+        <f t="shared" ref="AE3:AE19" si="1">IF(VLOOKUP($AC3,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="AF3" s="18">
+        <f t="shared" ref="AF3:AF19" si="2">IF(VLOOKUP($AC3,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,4,FALSE))</f>
+        <v>-2.411</v>
+      </c>
+      <c r="AG3" s="18">
+        <f t="shared" ref="AG3:AG19" si="3">IF(VLOOKUP($AC3,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,5,FALSE))</f>
+        <v>3.266</v>
+      </c>
+      <c r="AH3" s="18">
+        <f t="shared" ref="AH3:AH19" si="4">IF(VLOOKUP($AC3,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,6,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="AI3" s="18">
+        <f t="shared" ref="AI3:AI19" si="5">IF(VLOOKUP($AC3,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,7,FALSE))</f>
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="18">
+        <f t="shared" ref="AJ3:AJ19" si="6">IF(VLOOKUP($AC3,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,8,FALSE))</f>
+        <v>126</v>
+      </c>
+      <c r="AK3" s="18">
+        <f t="shared" ref="AK3:AK19" si="7">IF(VLOOKUP($AC3,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
+        <f t="shared" ref="AL3:AL19" si="8">IF(VLOOKUP($AC3,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,10,FALSE))</f>
+        <v>-2.6781364979012281</v>
+      </c>
+      <c r="AM3" s="18">
+        <f t="shared" ref="AM3:AM19" si="9">IF(VLOOKUP($AC3,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,18,FALSE))</f>
+        <v>7.79</v>
+      </c>
+      <c r="AN3" s="18">
+        <f t="shared" ref="AN3:AN19" si="10">IF(VLOOKUP($AC3,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,19,FALSE))</f>
+        <v>13.685</v>
+      </c>
+      <c r="AO3" s="29">
+        <f t="shared" ref="AO3:AO19" si="11">IF(VLOOKUP($AC3,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,21,FALSE))</f>
+        <v>225</v>
+      </c>
+      <c r="AP3" s="18" t="str">
+        <f t="shared" ref="AP3:AP19" si="12">IF(VLOOKUP($AC3,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,23,FALSE))</f>
+        <v>cubic</v>
+      </c>
+      <c r="AQ3" s="18">
+        <f t="shared" ref="AQ3:AQ19" si="13">IF(VLOOKUP($AC3,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC3,$C$2:$Z$154,24,FALSE))</f>
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -12119,22 +13954,71 @@
       <c r="Y4" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>304</v>
+      <c r="Z4" s="2">
+        <v>100</v>
       </c>
       <c r="AA4" s="2"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="7"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC4" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="AE4" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="AF4" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.6549999999999998</v>
+      </c>
+      <c r="AG4" s="18">
+        <f t="shared" si="3"/>
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="AH4" s="18">
+        <f t="shared" si="4"/>
+        <v>2.67</v>
+      </c>
+      <c r="AI4" s="18">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="18">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="AK4" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="18">
+        <f t="shared" si="8"/>
+        <v>-9.2345960511996683</v>
+      </c>
+      <c r="AM4" s="18">
+        <f t="shared" si="9"/>
+        <v>5.93</v>
+      </c>
+      <c r="AN4" s="18">
+        <f t="shared" si="10"/>
+        <v>9.6257142857142846</v>
+      </c>
+      <c r="AO4" s="29">
+        <f t="shared" si="11"/>
+        <v>227</v>
+      </c>
+      <c r="AP4" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>cubic</v>
+      </c>
+      <c r="AQ4" s="18">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -12208,22 +14092,71 @@
       <c r="Y5" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>304</v>
+      <c r="Z5" s="2">
+        <v>100</v>
       </c>
       <c r="AA5" s="2"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="7"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC5" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="AE5" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="AF5" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.5430000000000001</v>
+      </c>
+      <c r="AG5" s="18">
+        <f t="shared" si="3"/>
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="AH5" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI5" s="18">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="AJ5" s="18">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="AK5" s="18">
+        <f t="shared" si="7"/>
+        <v>0.59</v>
+      </c>
+      <c r="AL5" s="18">
+        <f t="shared" si="8"/>
+        <v>-2.4660000000000002</v>
+      </c>
+      <c r="AM5" s="18">
+        <f t="shared" si="9"/>
+        <v>5.14</v>
+      </c>
+      <c r="AN5" s="18">
+        <f t="shared" si="10"/>
+        <v>12.112500000000001</v>
+      </c>
+      <c r="AO5" s="29">
+        <f t="shared" si="11"/>
+        <v>216</v>
+      </c>
+      <c r="AP5" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>cubic</v>
+      </c>
+      <c r="AQ5" s="18">
+        <f t="shared" si="13"/>
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -12286,18 +14219,67 @@
         <v>312</v>
       </c>
       <c r="AA6" s="2"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="7"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC6" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="AE6" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="AF6" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.6720000000000002</v>
+      </c>
+      <c r="AG6" s="18">
+        <f t="shared" si="3"/>
+        <v>5.1619999999999999</v>
+      </c>
+      <c r="AH6" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AI6" s="18">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="AJ6" s="18">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="AK6" s="18">
+        <f t="shared" si="7"/>
+        <v>2.02</v>
+      </c>
+      <c r="AL6" s="18">
+        <f t="shared" si="8"/>
+        <v>-8.5422604549930039</v>
+      </c>
+      <c r="AM6" s="18">
+        <f t="shared" si="9"/>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AN6" s="18">
+        <f t="shared" si="10"/>
+        <v>10.74225</v>
+      </c>
+      <c r="AO6" s="29">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AP6" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>monoclinic</v>
+      </c>
+      <c r="AQ6" s="18">
+        <f t="shared" si="13"/>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -12360,18 +14342,67 @@
         <v>315</v>
       </c>
       <c r="AA7" s="2"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="7"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC7" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="AE7" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="AF7" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.625</v>
+      </c>
+      <c r="AG7" s="18">
+        <f t="shared" si="3"/>
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="AH7" s="18">
+        <f t="shared" si="4"/>
+        <v>2.67</v>
+      </c>
+      <c r="AI7" s="18">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="AJ7" s="18">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="AK7" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <f t="shared" si="8"/>
+        <v>-11.591439083795409</v>
+      </c>
+      <c r="AM7" s="18">
+        <f t="shared" si="9"/>
+        <v>4.95</v>
+      </c>
+      <c r="AN7" s="18">
+        <f t="shared" si="10"/>
+        <v>11.095714285714285</v>
+      </c>
+      <c r="AO7" s="29">
+        <f t="shared" si="11"/>
+        <v>227</v>
+      </c>
+      <c r="AP7" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>cubic</v>
+      </c>
+      <c r="AQ7" s="18">
+        <f t="shared" si="13"/>
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -12449,18 +14480,67 @@
         <v>150</v>
       </c>
       <c r="AA8" s="2"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="7"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC8" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="AF8" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.5089999999999999</v>
+      </c>
+      <c r="AG8" s="18">
+        <f t="shared" si="3"/>
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="AH8" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI8" s="18">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AJ8" s="18">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="AK8" s="18">
+        <f t="shared" si="7"/>
+        <v>1.27</v>
+      </c>
+      <c r="AL8" s="18">
+        <f t="shared" si="8"/>
+        <v>-2.8190910504223456</v>
+      </c>
+      <c r="AM8" s="18">
+        <f t="shared" si="9"/>
+        <v>5.59</v>
+      </c>
+      <c r="AN8" s="18">
+        <f t="shared" si="10"/>
+        <v>10.68</v>
+      </c>
+      <c r="AO8" s="29">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AP8" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>monoclinic</v>
+      </c>
+      <c r="AQ8" s="18">
+        <f t="shared" si="13"/>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -12523,18 +14603,67 @@
         <v>450</v>
       </c>
       <c r="AA9" s="2"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="7"/>
-    </row>
-    <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="137" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE9" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AF9" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.8759999999999999</v>
+      </c>
+      <c r="AG9" s="18">
+        <f t="shared" si="3"/>
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="AH9" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AI9" s="18">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AJ9" s="18">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="AK9" s="18">
+        <f t="shared" si="7"/>
+        <v>3.25</v>
+      </c>
+      <c r="AL9" s="18">
+        <f t="shared" si="8"/>
+        <v>-6.0112970928123541</v>
+      </c>
+      <c r="AM9" s="18">
+        <f t="shared" si="9"/>
+        <v>4.04</v>
+      </c>
+      <c r="AN9" s="18">
+        <f t="shared" si="10"/>
+        <v>14.348888888888887</v>
+      </c>
+      <c r="AO9" s="29">
+        <f t="shared" si="11"/>
+        <v>152</v>
+      </c>
+      <c r="AP9" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>trigonal</v>
+      </c>
+      <c r="AQ9" s="18">
+        <f t="shared" si="13"/>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -12599,18 +14728,67 @@
         <v>2000</v>
       </c>
       <c r="AA10" s="2"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="7"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC10" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD10" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE10" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AF10" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.6429999999999998</v>
+      </c>
+      <c r="AG10" s="18">
+        <f t="shared" si="3"/>
+        <v>4.5860000000000003</v>
+      </c>
+      <c r="AH10" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AI10" s="18">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="AJ10" s="18">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="AK10" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93</v>
+      </c>
+      <c r="AL10" s="18">
+        <f t="shared" si="8"/>
+        <v>-9.5952738767684096</v>
+      </c>
+      <c r="AM10" s="18">
+        <f t="shared" si="9"/>
+        <v>6.75</v>
+      </c>
+      <c r="AN10" s="18">
+        <f t="shared" si="10"/>
+        <v>13.6585</v>
+      </c>
+      <c r="AO10" s="29">
+        <f t="shared" si="11"/>
+        <v>206</v>
+      </c>
+      <c r="AP10" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>cubic</v>
+      </c>
+      <c r="AQ10" s="18">
+        <f t="shared" si="13"/>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -12673,18 +14851,67 @@
         <v>1972</v>
       </c>
       <c r="AA11" s="2"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="7"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC11" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AE11" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AF11" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.5009999999999999</v>
+      </c>
+      <c r="AG11" s="18">
+        <f t="shared" si="3"/>
+        <v>4.76</v>
+      </c>
+      <c r="AH11" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AI11" s="18">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="AJ11" s="18">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="AK11" s="18">
+        <f t="shared" si="7"/>
+        <v>0.11</v>
+      </c>
+      <c r="AL11" s="18">
+        <f t="shared" si="8"/>
+        <v>-9.9393688138052543</v>
+      </c>
+      <c r="AM11" s="18">
+        <f t="shared" si="9"/>
+        <v>4.72</v>
+      </c>
+      <c r="AN11" s="18">
+        <f t="shared" si="10"/>
+        <v>11.105500000000001</v>
+      </c>
+      <c r="AO11" s="29">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="AP11" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>orthorhombic</v>
+      </c>
+      <c r="AQ11" s="18">
+        <f t="shared" si="13"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -12747,18 +14974,67 @@
         <v>450</v>
       </c>
       <c r="AA12" s="2"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="7"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC12" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD12" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AE12" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AF12" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.444</v>
+      </c>
+      <c r="AG12" s="18">
+        <f t="shared" si="3"/>
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="AH12" s="18">
+        <f t="shared" si="4"/>
+        <v>2.67</v>
+      </c>
+      <c r="AI12" s="18">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="AJ12" s="18">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="AK12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="AL12" s="18">
+        <f t="shared" si="8"/>
+        <v>-14.383582940353422</v>
+      </c>
+      <c r="AM12" s="18">
+        <f t="shared" si="9"/>
+        <v>4.59</v>
+      </c>
+      <c r="AN12" s="18">
+        <f t="shared" si="10"/>
+        <v>11.818571428571429</v>
+      </c>
+      <c r="AO12" s="29">
+        <f t="shared" si="11"/>
+        <v>141</v>
+      </c>
+      <c r="AP12" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>tetragonal</v>
+      </c>
+      <c r="AQ12" s="18">
+        <f t="shared" si="13"/>
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -12821,18 +15097,67 @@
         <v>2577</v>
       </c>
       <c r="AA13" s="2"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="7"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC13" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AE13" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AF13" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.3090000000000002</v>
+      </c>
+      <c r="AG13" s="18">
+        <f t="shared" si="3"/>
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="AH13" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI13" s="18">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="18">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="AK13" s="18">
+        <f t="shared" si="7"/>
+        <v>1.95</v>
+      </c>
+      <c r="AL13" s="18">
+        <f t="shared" si="8"/>
+        <v>-3.9923304140539981</v>
+      </c>
+      <c r="AM13" s="18">
+        <f t="shared" si="9"/>
+        <v>5.19</v>
+      </c>
+      <c r="AN13" s="18">
+        <f t="shared" si="10"/>
+        <v>11.3475</v>
+      </c>
+      <c r="AO13" s="29">
+        <f t="shared" si="11"/>
+        <v>225</v>
+      </c>
+      <c r="AP13" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>cubic</v>
+      </c>
+      <c r="AQ13" s="18">
+        <f t="shared" si="13"/>
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -12895,18 +15220,67 @@
         <v>817</v>
       </c>
       <c r="AA14" s="2"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="7"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC14" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD14" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.153</v>
+      </c>
+      <c r="AE14" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.153</v>
+      </c>
+      <c r="AF14" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.9460000000000002</v>
+      </c>
+      <c r="AG14" s="18">
+        <f t="shared" si="3"/>
+        <v>6.149</v>
+      </c>
+      <c r="AH14" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AI14" s="18">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="AJ14" s="18">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="AK14" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="18">
+        <f t="shared" si="8"/>
+        <v>-6.1035394102710265</v>
+      </c>
+      <c r="AM14" s="18">
+        <f t="shared" si="9"/>
+        <v>5.8</v>
+      </c>
+      <c r="AN14" s="18">
+        <f t="shared" si="10"/>
+        <v>12.204166666666666</v>
+      </c>
+      <c r="AO14" s="29">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+      <c r="AP14" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>tetragonal</v>
+      </c>
+      <c r="AQ14" s="18">
+        <f t="shared" si="13"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -12968,18 +15342,67 @@
         <v>304</v>
       </c>
       <c r="AA15" s="2"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="7"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC15" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD15" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE15" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.153</v>
+      </c>
+      <c r="AF15" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.0619999999999998</v>
+      </c>
+      <c r="AG15" s="18">
+        <f t="shared" si="3"/>
+        <v>5.6840000000000002</v>
+      </c>
+      <c r="AH15" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AI15" s="18">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="AJ15" s="18">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AK15" s="18">
+        <f t="shared" si="7"/>
+        <v>1.37</v>
+      </c>
+      <c r="AL15" s="18">
+        <f t="shared" si="8"/>
+        <v>-7.7224439031973882</v>
+      </c>
+      <c r="AM15" s="18">
+        <f t="shared" si="9"/>
+        <v>4.12</v>
+      </c>
+      <c r="AN15" s="18">
+        <f t="shared" si="10"/>
+        <v>14.508749999999999</v>
+      </c>
+      <c r="AO15" s="29">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AP15" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>monoclinic</v>
+      </c>
+      <c r="AQ15" s="18">
+        <f t="shared" si="13"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -13041,18 +15464,67 @@
         <v>305</v>
       </c>
       <c r="AA16" s="2"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="7"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC16" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD16" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE16" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.186</v>
+      </c>
+      <c r="AF16" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.7970000000000002</v>
+      </c>
+      <c r="AG16" s="18">
+        <f t="shared" si="3"/>
+        <v>4.431</v>
+      </c>
+      <c r="AH16" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AI16" s="18">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AJ16" s="18">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AK16" s="18">
+        <f t="shared" si="7"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AL16" s="18">
+        <f t="shared" si="8"/>
+        <v>-7.4654609524796598</v>
+      </c>
+      <c r="AM16" s="18">
+        <f t="shared" si="9"/>
+        <v>5.36</v>
+      </c>
+      <c r="AN16" s="18">
+        <f t="shared" si="10"/>
+        <v>18.076499999999999</v>
+      </c>
+      <c r="AO16" s="29">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="AP16" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>orthorhombic</v>
+      </c>
+      <c r="AQ16" s="18">
+        <f t="shared" si="13"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -13115,18 +15587,67 @@
         <v>2898</v>
       </c>
       <c r="AA17" s="2"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="7"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC17" s="137" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD17" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE17" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AF17" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.895</v>
+      </c>
+      <c r="AG17" s="18">
+        <f t="shared" si="3"/>
+        <v>4.5090000000000003</v>
+      </c>
+      <c r="AH17" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AI17" s="18">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="AJ17" s="18">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="AK17" s="18">
+        <f t="shared" si="7"/>
+        <v>1.89</v>
+      </c>
+      <c r="AL17" s="18">
+        <f t="shared" si="8"/>
+        <v>-9.4057107322381714</v>
+      </c>
+      <c r="AM17" s="18">
+        <f t="shared" si="9"/>
+        <v>6.26</v>
+      </c>
+      <c r="AN17" s="18">
+        <f t="shared" si="10"/>
+        <v>13.59375</v>
+      </c>
+      <c r="AO17" s="29">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="AP17" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>orthorhombic</v>
+      </c>
+      <c r="AQ17" s="18">
+        <f t="shared" si="13"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -13189,18 +15710,67 @@
         <v>1430</v>
       </c>
       <c r="AA18" s="2"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="7"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC18" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD18" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE18" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AF18" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.6640000000000001</v>
+      </c>
+      <c r="AG18" s="18">
+        <f t="shared" si="3"/>
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="AH18" s="18">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="AI18" s="18">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AJ18" s="18">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="AK18" s="18">
+        <f t="shared" si="7"/>
+        <v>1.76</v>
+      </c>
+      <c r="AL18" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="AM18" s="18">
+        <f t="shared" si="9"/>
+        <v>5.7</v>
+      </c>
+      <c r="AN18" s="18">
+        <f t="shared" si="10"/>
+        <v>18.272727272727273</v>
+      </c>
+      <c r="AO18" s="29">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AP18" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>monoclinic</v>
+      </c>
+      <c r="AQ18" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -13262,18 +15832,67 @@
         <v>304</v>
       </c>
       <c r="AA19" s="2"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="7"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC19" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD19" s="179">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE19" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AF19" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.8519999999999999</v>
+      </c>
+      <c r="AG19" s="18">
+        <f t="shared" si="3"/>
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="AH19" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AI19" s="18">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="AJ19" s="18">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="AK19" s="18">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="AL19" s="18">
+        <f t="shared" si="8"/>
+        <v>-5.9859999999999998</v>
+      </c>
+      <c r="AM19" s="18">
+        <f t="shared" si="9"/>
+        <v>6.61</v>
+      </c>
+      <c r="AN19" s="18">
+        <f t="shared" si="10"/>
+        <v>12.621666666666668</v>
+      </c>
+      <c r="AO19" s="29">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+      <c r="AP19" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>tetragonal</v>
+      </c>
+      <c r="AQ19" s="18">
+        <f t="shared" si="13"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -13335,18 +15954,67 @@
         <v>304</v>
       </c>
       <c r="AA20" s="2"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="7"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC20" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD20" s="179">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="AF20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,4,FALSE))</f>
+        <v>-2.597</v>
+      </c>
+      <c r="AG20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,5,FALSE))</f>
+        <v>4.5179999999999998</v>
+      </c>
+      <c r="AH20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,6,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="AI20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,7,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="AJ20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,8,FALSE))</f>
+        <v>32</v>
+      </c>
+      <c r="AK20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,9,FALSE))</f>
+        <v>0.41</v>
+      </c>
+      <c r="AL20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,10,FALSE))</f>
+        <v>-2.9092605068145305</v>
+      </c>
+      <c r="AM20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,18,FALSE))</f>
+        <v>5.94</v>
+      </c>
+      <c r="AN20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,19,FALSE))</f>
+        <v>18.822500000000002</v>
+      </c>
+      <c r="AO20" s="29">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,21,FALSE))</f>
+        <v>129</v>
+      </c>
+      <c r="AP20" s="18" t="str">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,23,FALSE))</f>
+        <v>tetragonal</v>
+      </c>
+      <c r="AQ20" s="18">
+        <f>IF(VLOOKUP($AC20,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC20,$C$2:$Z$154,24,FALSE))</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -13409,18 +16077,67 @@
         <v>2210</v>
       </c>
       <c r="AA21" s="2"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="7"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC21" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD21" s="179">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="AF21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,4,FALSE))</f>
+        <v>-2.9180000000000001</v>
+      </c>
+      <c r="AG21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,5,FALSE))</f>
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="AH21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,6,FALSE))</f>
+        <v>4</v>
+      </c>
+      <c r="AI21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,7,FALSE))</f>
+        <v>17</v>
+      </c>
+      <c r="AJ21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,8,FALSE))</f>
+        <v>23</v>
+      </c>
+      <c r="AK21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,9,FALSE))</f>
+        <v>2.23</v>
+      </c>
+      <c r="AL21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,10,FALSE))</f>
+        <v>-3.3435249002435614</v>
+      </c>
+      <c r="AM21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,18,FALSE))</f>
+        <v>5.36</v>
+      </c>
+      <c r="AN21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,19,FALSE))</f>
+        <v>16.472916666666666</v>
+      </c>
+      <c r="AO21" s="29">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,21,FALSE))</f>
+        <v>61</v>
+      </c>
+      <c r="AP21" s="18" t="str">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,23,FALSE))</f>
+        <v>orthorhombic</v>
+      </c>
+      <c r="AQ21" s="18">
+        <f>IF(VLOOKUP($AC21,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC21,$C$2:$Z$154,24,FALSE))</f>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -13482,18 +16199,67 @@
         <v>304</v>
       </c>
       <c r="AA22" s="2"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="7"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC22" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD22" s="179">
+        <f t="shared" ref="AD22" si="14">IF(VLOOKUP($AC22,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE22" s="18">
+        <f t="shared" ref="AE22" si="15">IF(VLOOKUP($AC22,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="AF22" s="18">
+        <f t="shared" ref="AF22" si="16">IF(VLOOKUP($AC22,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,4,FALSE))</f>
+        <v>-2.7789999999999999</v>
+      </c>
+      <c r="AG22" s="18">
+        <f t="shared" ref="AG22" si="17">IF(VLOOKUP($AC22,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,5,FALSE))</f>
+        <v>5.68</v>
+      </c>
+      <c r="AH22" s="18">
+        <f t="shared" ref="AH22" si="18">IF(VLOOKUP($AC22,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,6,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="AI22" s="18">
+        <f t="shared" ref="AI22" si="19">IF(VLOOKUP($AC22,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,7,FALSE))</f>
+        <v>47</v>
+      </c>
+      <c r="AJ22" s="18">
+        <f t="shared" ref="AJ22" si="20">IF(VLOOKUP($AC22,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,8,FALSE))</f>
+        <v>105</v>
+      </c>
+      <c r="AK22" s="18">
+        <f t="shared" ref="AK22" si="21">IF(VLOOKUP($AC22,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,9,FALSE))</f>
+        <v>2.16</v>
+      </c>
+      <c r="AL22" s="18">
+        <f t="shared" ref="AL22" si="22">IF(VLOOKUP($AC22,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,10,FALSE))</f>
+        <v>-16.070891848473856</v>
+      </c>
+      <c r="AM22" s="18">
+        <f t="shared" ref="AM22" si="23">IF(VLOOKUP($AC22,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,18,FALSE))</f>
+        <v>3.15</v>
+      </c>
+      <c r="AN22" s="18">
+        <f t="shared" ref="AN22" si="24">IF(VLOOKUP($AC22,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,19,FALSE))</f>
+        <v>13.677857142857144</v>
+      </c>
+      <c r="AO22" s="29">
+        <f t="shared" ref="AO22" si="25">IF(VLOOKUP($AC22,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,21,FALSE))</f>
+        <v>59</v>
+      </c>
+      <c r="AP22" s="18" t="str">
+        <f t="shared" ref="AP22" si="26">IF(VLOOKUP($AC22,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,23,FALSE))</f>
+        <v>orthorhombic</v>
+      </c>
+      <c r="AQ22" s="18">
+        <f t="shared" ref="AQ22" si="27">IF(VLOOKUP($AC22,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC22,$C$2:$Z$154,24,FALSE))</f>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -13555,18 +16321,67 @@
         <v>304</v>
       </c>
       <c r="AA23" s="2"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="7"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC23" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD23" s="179">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="AE23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="AF23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,4,FALSE))</f>
+        <v>-2.6</v>
+      </c>
+      <c r="AG23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,5,FALSE))</f>
+        <v>6.14</v>
+      </c>
+      <c r="AH23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,6,FALSE))</f>
+        <v>3.33</v>
+      </c>
+      <c r="AI23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,7,FALSE))</f>
+        <v>85</v>
+      </c>
+      <c r="AJ23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,8,FALSE))</f>
+        <v>185</v>
+      </c>
+      <c r="AK23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,9,FALSE))</f>
+        <v>0.95</v>
+      </c>
+      <c r="AL23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,10,FALSE))</f>
+        <v>-20.034202207597037</v>
+      </c>
+      <c r="AM23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,18,FALSE))</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AN23" s="18">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,19,FALSE))</f>
+        <v>10.874375000000001</v>
+      </c>
+      <c r="AO23" s="29">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,21,FALSE))</f>
+        <v>13</v>
+      </c>
+      <c r="AP23" s="18" t="str">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,23,FALSE))</f>
+        <v>monoclinic</v>
+      </c>
+      <c r="AQ23" s="18" t="str">
+        <f>IF(VLOOKUP($AC23,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC23,$C$2:$Z$154,24,FALSE))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>495</v>
       </c>
@@ -13625,18 +16440,67 @@
         <v>304</v>
       </c>
       <c r="AA24" s="2"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="7"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC24" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD24" s="179">
+        <f t="shared" ref="AD24:AD25" si="28">IF(VLOOKUP($AC24,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="AE24" s="18">
+        <f t="shared" ref="AE24:AE25" si="29">IF(VLOOKUP($AC24,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="AF24" s="18">
+        <f t="shared" ref="AF24:AF25" si="30">IF(VLOOKUP($AC24,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,4,FALSE))</f>
+        <v>-2.7490000000000001</v>
+      </c>
+      <c r="AG24" s="18">
+        <f t="shared" ref="AG24:AG25" si="31">IF(VLOOKUP($AC24,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,5,FALSE))</f>
+        <v>5.7919999999999998</v>
+      </c>
+      <c r="AH24" s="18">
+        <f t="shared" ref="AH24:AH25" si="32">IF(VLOOKUP($AC24,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,6,FALSE))</f>
+        <v>4.67</v>
+      </c>
+      <c r="AI24" s="18">
+        <f t="shared" ref="AI24:AI25" si="33">IF(VLOOKUP($AC24,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,7,FALSE))</f>
+        <v>53</v>
+      </c>
+      <c r="AJ24" s="18">
+        <f t="shared" ref="AJ24:AJ25" si="34">IF(VLOOKUP($AC24,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,8,FALSE))</f>
+        <v>118</v>
+      </c>
+      <c r="AK24" s="18">
+        <f t="shared" ref="AK24:AK25" si="35">IF(VLOOKUP($AC24,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,9,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="AL24" s="18" t="str">
+        <f t="shared" ref="AL24:AL25" si="36">IF(VLOOKUP($AC24,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,10,FALSE))</f>
+        <v>-</v>
+      </c>
+      <c r="AM24" s="18">
+        <f t="shared" ref="AM24:AM25" si="37">IF(VLOOKUP($AC24,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,18,FALSE))</f>
+        <v>3.42</v>
+      </c>
+      <c r="AN24" s="18">
+        <f t="shared" ref="AN24:AN25" si="38">IF(VLOOKUP($AC24,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,19,FALSE))</f>
+        <v>12.875</v>
+      </c>
+      <c r="AO24" s="29">
+        <f t="shared" ref="AO24:AO25" si="39">IF(VLOOKUP($AC24,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,21,FALSE))</f>
+        <v>15</v>
+      </c>
+      <c r="AP24" s="18" t="str">
+        <f t="shared" ref="AP24:AP25" si="40">IF(VLOOKUP($AC24,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,23,FALSE))</f>
+        <v>monoclinic</v>
+      </c>
+      <c r="AQ24" s="18" t="str">
+        <f t="shared" ref="AQ24:AQ25" si="41">IF(VLOOKUP($AC24,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC24,$C$2:$Z$154,24,FALSE))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>96.484999999999999</v>
       </c>
@@ -13711,18 +16575,67 @@
         <v>2400</v>
       </c>
       <c r="AA25" s="2"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="7"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC25" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD25" s="179">
+        <f t="shared" si="28"/>
+        <v>-0.221</v>
+      </c>
+      <c r="AE25" s="18">
+        <f t="shared" si="29"/>
+        <v>-0.221</v>
+      </c>
+      <c r="AF25" s="18">
+        <f t="shared" si="30"/>
+        <v>-3.0339999999999998</v>
+      </c>
+      <c r="AG25" s="18">
+        <f t="shared" si="31"/>
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="AH25" s="18">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="AI25" s="18">
+        <f t="shared" si="33"/>
+        <v>75</v>
+      </c>
+      <c r="AJ25" s="18">
+        <f t="shared" si="34"/>
+        <v>229</v>
+      </c>
+      <c r="AK25" s="18">
+        <f t="shared" si="35"/>
+        <v>1.25</v>
+      </c>
+      <c r="AL25" s="18">
+        <f t="shared" si="36"/>
+        <v>-6.1118308545369748</v>
+      </c>
+      <c r="AM25" s="18">
+        <f t="shared" si="37"/>
+        <v>9.6</v>
+      </c>
+      <c r="AN25" s="18">
+        <f t="shared" si="38"/>
+        <v>12.442500000000001</v>
+      </c>
+      <c r="AO25" s="29">
+        <f t="shared" si="39"/>
+        <v>136</v>
+      </c>
+      <c r="AP25" s="18" t="str">
+        <f t="shared" si="40"/>
+        <v>tetragonal</v>
+      </c>
+      <c r="AQ25" s="18">
+        <f t="shared" si="41"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>37</v>
@@ -13780,18 +16693,67 @@
         <v>900</v>
       </c>
       <c r="AA26" s="2"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="7"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC26" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD26" s="179">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,2,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,2,FALSE))</f>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AE26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,3,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,3,FALSE))</f>
+        <v>-0.221</v>
+      </c>
+      <c r="AF26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,4,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,4,FALSE))</f>
+        <v>-3.1309999999999998</v>
+      </c>
+      <c r="AG26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,5,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,5,FALSE))</f>
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="AH26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,6,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,6,FALSE))</f>
+        <v>6</v>
+      </c>
+      <c r="AI26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,7,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,7,FALSE))</f>
+        <v>125</v>
+      </c>
+      <c r="AJ26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,8,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,8,FALSE))</f>
+        <v>223</v>
+      </c>
+      <c r="AK26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,9,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,9,FALSE))</f>
+        <v>1.33</v>
+      </c>
+      <c r="AL26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,10,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,10,FALSE))</f>
+        <v>-8.7360729647095408</v>
+      </c>
+      <c r="AM26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,18,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,18,FALSE))</f>
+        <v>6.69</v>
+      </c>
+      <c r="AN26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,19,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,19,FALSE))</f>
+        <v>14.393750000000001</v>
+      </c>
+      <c r="AO26" s="29">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,21,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,21,FALSE))</f>
+        <v>60</v>
+      </c>
+      <c r="AP26" s="18" t="str">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,23,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,23,FALSE))</f>
+        <v>orthorhombic</v>
+      </c>
+      <c r="AQ26" s="18">
+        <f>IF(VLOOKUP($AC26,$C$2:$Z$154,24,FALSE)="","n/a",VLOOKUP($AC26,$C$2:$Z$154,24,FALSE))</f>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>38</v>
@@ -13864,18 +16826,22 @@
         <v>1830</v>
       </c>
       <c r="AA27" s="2"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="7"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AD27" s="179"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>40</v>
@@ -13936,14 +16902,13 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="7"/>
+      <c r="AH28" s="179"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
-      <c r="AM28" s="7"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -14021,14 +16986,13 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="26"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
+      <c r="AH29" s="179"/>
+      <c r="AI29" s="179"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
-      <c r="AM29" s="7"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>43</v>
@@ -14089,14 +17053,13 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
+      <c r="AH30" s="179"/>
+      <c r="AI30" s="179"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
-      <c r="AM30" s="7"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>44</v>
@@ -14158,14 +17121,13 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="2"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
+      <c r="AH31" s="179"/>
+      <c r="AI31" s="179"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
-      <c r="AM31" s="7"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>45</v>
@@ -14226,14 +17188,13 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="2"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
+      <c r="AH32" s="179"/>
+      <c r="AI32" s="179"/>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
-      <c r="AM32" s="7"/>
-    </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -14295,14 +17256,13 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
+      <c r="AH33" s="179"/>
+      <c r="AI33" s="179"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
-      <c r="AM33" s="7"/>
-    </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>49</v>
@@ -14363,14 +17323,13 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
+      <c r="AH34" s="179"/>
+      <c r="AI34" s="179"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
-      <c r="AM34" s="7"/>
-    </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>48</v>
@@ -14431,14 +17390,13 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="2"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
+      <c r="AH35" s="179"/>
+      <c r="AI35" s="179"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
-      <c r="AM35" s="7"/>
-    </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>50</v>
@@ -14500,14 +17458,13 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="26"/>
       <c r="AG36" s="2"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7"/>
+      <c r="AH36" s="179"/>
+      <c r="AI36" s="179"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
-      <c r="AM36" s="7"/>
-    </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>51</v>
@@ -14569,14 +17526,13 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="26"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
+      <c r="AH37" s="179"/>
+      <c r="AI37" s="179"/>
       <c r="AJ37" s="7"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
-      <c r="AM37" s="7"/>
-    </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>53</v>
@@ -14637,14 +17593,13 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="26"/>
       <c r="AG38" s="2"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7"/>
+      <c r="AH38" s="179"/>
+      <c r="AI38" s="179"/>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
-      <c r="AM38" s="7"/>
-    </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>54</v>
@@ -14722,14 +17677,13 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="26"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
+      <c r="AH39" s="179"/>
+      <c r="AI39" s="179"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" s="7"/>
-    </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>55</v>
@@ -14791,14 +17745,13 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="26"/>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
+      <c r="AH40" s="179"/>
+      <c r="AI40" s="179"/>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
-      <c r="AM40" s="7"/>
-    </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>57</v>
@@ -14860,14 +17813,13 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="26"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
+      <c r="AH41" s="179"/>
+      <c r="AI41" s="179"/>
       <c r="AJ41" s="7"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" s="7"/>
-    </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>59</v>
@@ -14929,14 +17881,13 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="26"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
+      <c r="AH42" s="179"/>
+      <c r="AI42" s="179"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" s="7"/>
-    </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>60</v>
@@ -14997,14 +17948,13 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="26"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
+      <c r="AH43" s="179"/>
+      <c r="AI43" s="179"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" s="7"/>
-    </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>62</v>
@@ -15082,14 +18032,13 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="26"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
+      <c r="AH44" s="179"/>
+      <c r="AI44" s="179"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" s="7"/>
-    </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>63</v>
@@ -15151,14 +18100,13 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="26"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
+      <c r="AH45" s="179"/>
+      <c r="AI45" s="179"/>
       <c r="AJ45" s="7"/>
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" s="7"/>
-    </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>64</v>
@@ -15220,14 +18168,13 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="26"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
+      <c r="AH46" s="179"/>
+      <c r="AI46" s="179"/>
       <c r="AJ46" s="7"/>
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" s="7"/>
-    </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>66</v>
@@ -15289,14 +18236,13 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="26"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
+      <c r="AH47" s="179"/>
+      <c r="AI47" s="179"/>
       <c r="AJ47" s="7"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" s="7"/>
-    </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>68</v>
@@ -15358,14 +18304,13 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="7"/>
+      <c r="AH48" s="179"/>
+      <c r="AI48" s="179"/>
       <c r="AJ48" s="7"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" s="7"/>
-    </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>70</v>
@@ -15427,14 +18372,13 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="26"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
+      <c r="AH49" s="179"/>
+      <c r="AI49" s="179"/>
       <c r="AJ49" s="7"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" s="7"/>
-    </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>72</v>
@@ -15496,14 +18440,13 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="26"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
+      <c r="AH50" s="179"/>
+      <c r="AI50" s="179"/>
       <c r="AJ50" s="7"/>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" s="7"/>
-    </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>74</v>
@@ -15565,14 +18508,13 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="26"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
+      <c r="AH51" s="179"/>
+      <c r="AI51" s="179"/>
       <c r="AJ51" s="7"/>
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" s="7"/>
-    </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
         <v>76</v>
@@ -15634,14 +18576,13 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="26"/>
       <c r="AG52" s="2"/>
-      <c r="AH52" s="7"/>
+      <c r="AH52" s="179"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
-      <c r="AM52" s="7"/>
-    </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
         <v>78</v>
@@ -15702,14 +18643,13 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="26"/>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="7"/>
+      <c r="AH53" s="179"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
-      <c r="AM53" s="7"/>
-    </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>80</v>
@@ -15771,14 +18711,13 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="26"/>
       <c r="AG54" s="2"/>
-      <c r="AH54" s="7"/>
+      <c r="AH54" s="179"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="7"/>
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
-      <c r="AM54" s="7"/>
-    </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>82</v>
@@ -15856,14 +18795,13 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="26"/>
       <c r="AG55" s="2"/>
-      <c r="AH55" s="7"/>
+      <c r="AH55" s="179"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="7"/>
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
-      <c r="AM55" s="7"/>
-    </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
         <v>84</v>
@@ -15924,14 +18862,13 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="26"/>
       <c r="AG56" s="2"/>
-      <c r="AH56" s="7"/>
+      <c r="AH56" s="179"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7"/>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
-      <c r="AM56" s="7"/>
-    </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
         <v>85</v>
@@ -15993,14 +18930,13 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="26"/>
       <c r="AG57" s="2"/>
-      <c r="AH57" s="7"/>
+      <c r="AH57" s="179"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="7"/>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
-      <c r="AM57" s="7"/>
-    </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
         <v>87</v>
@@ -16062,14 +18998,13 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="26"/>
       <c r="AG58" s="2"/>
-      <c r="AH58" s="7"/>
+      <c r="AH58" s="179"/>
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
-      <c r="AM58" s="7"/>
-    </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>88</v>
@@ -16131,14 +19066,13 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="26"/>
       <c r="AG59" s="2"/>
-      <c r="AH59" s="7"/>
+      <c r="AH59" s="179"/>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
-      <c r="AM59" s="7"/>
-    </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>89</v>
@@ -16200,14 +19134,13 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="26"/>
       <c r="AG60" s="2"/>
-      <c r="AH60" s="7"/>
+      <c r="AH60" s="179"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="7"/>
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
-      <c r="AM60" s="7"/>
-    </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
         <v>91</v>
@@ -16269,14 +19202,13 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="26"/>
       <c r="AG61" s="2"/>
-      <c r="AH61" s="7"/>
+      <c r="AH61" s="179"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="7"/>
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
-      <c r="AM61" s="7"/>
-    </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
         <v>93</v>
@@ -16338,14 +19270,13 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="26"/>
       <c r="AG62" s="2"/>
-      <c r="AH62" s="7"/>
+      <c r="AH62" s="179"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="7"/>
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
-      <c r="AM62" s="7"/>
-    </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
         <v>94</v>
@@ -16407,14 +19338,13 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="26"/>
       <c r="AG63" s="2"/>
-      <c r="AH63" s="7"/>
+      <c r="AH63" s="179"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="7"/>
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
-      <c r="AM63" s="7"/>
-    </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
         <v>96</v>
@@ -16492,14 +19422,13 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="26"/>
       <c r="AG64" s="2"/>
-      <c r="AH64" s="7"/>
+      <c r="AH64" s="179"/>
       <c r="AI64" s="7"/>
       <c r="AJ64" s="7"/>
       <c r="AK64" s="2"/>
       <c r="AL64" s="2"/>
-      <c r="AM64" s="7"/>
-    </row>
-    <row r="65" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
         <v>98</v>
@@ -16561,14 +19490,13 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="26"/>
       <c r="AG65" s="2"/>
-      <c r="AH65" s="7"/>
+      <c r="AH65" s="179"/>
       <c r="AI65" s="7"/>
       <c r="AJ65" s="7"/>
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
-      <c r="AM65" s="7"/>
-    </row>
-    <row r="66" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
         <v>99</v>
@@ -16646,14 +19574,13 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="26"/>
       <c r="AG66" s="2"/>
-      <c r="AH66" s="7"/>
+      <c r="AH66" s="179"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="7"/>
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
-      <c r="AM66" s="7"/>
-    </row>
-    <row r="67" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
         <v>100</v>
@@ -16715,14 +19642,13 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="26"/>
       <c r="AG67" s="2"/>
-      <c r="AH67" s="7"/>
+      <c r="AH67" s="179"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="7"/>
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
-      <c r="AM67" s="7"/>
-    </row>
-    <row r="68" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
         <v>102</v>
@@ -16784,14 +19710,13 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="26"/>
       <c r="AG68" s="2"/>
-      <c r="AH68" s="7"/>
+      <c r="AH68" s="179"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="7"/>
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
-      <c r="AM68" s="7"/>
-    </row>
-    <row r="69" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
         <v>103</v>
@@ -16852,14 +19777,13 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="26"/>
       <c r="AG69" s="2"/>
-      <c r="AH69" s="7"/>
+      <c r="AH69" s="179"/>
       <c r="AI69" s="7"/>
       <c r="AJ69" s="7"/>
       <c r="AK69" s="2"/>
       <c r="AL69" s="2"/>
-      <c r="AM69" s="7"/>
-    </row>
-    <row r="70" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
         <v>104</v>
@@ -16937,14 +19861,13 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="26"/>
       <c r="AG70" s="2"/>
-      <c r="AH70" s="7"/>
+      <c r="AH70" s="179"/>
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7"/>
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
-      <c r="AM70" s="7"/>
-    </row>
-    <row r="71" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
         <v>106</v>
@@ -17006,14 +19929,13 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="26"/>
       <c r="AG71" s="2"/>
-      <c r="AH71" s="7"/>
+      <c r="AH71" s="179"/>
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7"/>
       <c r="AK71" s="2"/>
       <c r="AL71" s="2"/>
-      <c r="AM71" s="7"/>
-    </row>
-    <row r="72" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
         <v>107</v>
@@ -17075,14 +19997,13 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="26"/>
       <c r="AG72" s="2"/>
-      <c r="AH72" s="7"/>
+      <c r="AH72" s="179"/>
       <c r="AI72" s="7"/>
       <c r="AJ72" s="7"/>
       <c r="AK72" s="2"/>
       <c r="AL72" s="2"/>
-      <c r="AM72" s="7"/>
-    </row>
-    <row r="73" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
         <v>109</v>
@@ -17144,14 +20065,13 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="26"/>
       <c r="AG73" s="2"/>
-      <c r="AH73" s="7"/>
+      <c r="AH73" s="179"/>
       <c r="AI73" s="7"/>
       <c r="AJ73" s="7"/>
       <c r="AK73" s="2"/>
       <c r="AL73" s="2"/>
-      <c r="AM73" s="7"/>
-    </row>
-    <row r="74" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
         <v>110</v>
@@ -17213,14 +20133,13 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="26"/>
       <c r="AG74" s="2"/>
-      <c r="AH74" s="7"/>
+      <c r="AH74" s="179"/>
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7"/>
       <c r="AK74" s="2"/>
       <c r="AL74" s="2"/>
-      <c r="AM74" s="7"/>
-    </row>
-    <row r="75" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
         <v>111</v>
@@ -17298,14 +20217,13 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="26"/>
       <c r="AG75" s="2"/>
-      <c r="AH75" s="7"/>
+      <c r="AH75" s="179"/>
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7"/>
       <c r="AK75" s="2"/>
       <c r="AL75" s="2"/>
-      <c r="AM75" s="7"/>
-    </row>
-    <row r="76" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
         <v>113</v>
@@ -17367,14 +20285,13 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="26"/>
       <c r="AG76" s="2"/>
-      <c r="AH76" s="7"/>
+      <c r="AH76" s="179"/>
       <c r="AI76" s="7"/>
       <c r="AJ76" s="7"/>
       <c r="AK76" s="2"/>
       <c r="AL76" s="2"/>
-      <c r="AM76" s="7"/>
-    </row>
-    <row r="77" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
         <v>112</v>
@@ -17436,14 +20353,13 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="26"/>
       <c r="AG77" s="2"/>
-      <c r="AH77" s="7"/>
+      <c r="AH77" s="179"/>
       <c r="AI77" s="7"/>
       <c r="AJ77" s="7"/>
       <c r="AK77" s="2"/>
       <c r="AL77" s="2"/>
-      <c r="AM77" s="7"/>
-    </row>
-    <row r="78" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
         <v>115</v>
@@ -17505,14 +20421,13 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="26"/>
       <c r="AG78" s="2"/>
-      <c r="AH78" s="7"/>
+      <c r="AH78" s="179"/>
       <c r="AI78" s="7"/>
       <c r="AJ78" s="7"/>
       <c r="AK78" s="2"/>
       <c r="AL78" s="2"/>
-      <c r="AM78" s="7"/>
-    </row>
-    <row r="79" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
         <v>117</v>
@@ -17573,14 +20488,13 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="26"/>
       <c r="AG79" s="2"/>
-      <c r="AH79" s="7"/>
+      <c r="AH79" s="179"/>
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7"/>
       <c r="AK79" s="2"/>
       <c r="AL79" s="2"/>
-      <c r="AM79" s="7"/>
-    </row>
-    <row r="80" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
         <v>118</v>
@@ -17657,14 +20571,13 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="26"/>
       <c r="AG80" s="2"/>
-      <c r="AH80" s="7"/>
+      <c r="AH80" s="179"/>
       <c r="AI80" s="7"/>
       <c r="AJ80" s="7"/>
       <c r="AK80" s="2"/>
       <c r="AL80" s="2"/>
-      <c r="AM80" s="7"/>
-    </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
         <v>120</v>
@@ -17725,14 +20638,13 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="26"/>
       <c r="AG81" s="2"/>
-      <c r="AH81" s="7"/>
+      <c r="AH81" s="179"/>
       <c r="AI81" s="7"/>
       <c r="AJ81" s="7"/>
       <c r="AK81" s="2"/>
       <c r="AL81" s="2"/>
-      <c r="AM81" s="7"/>
-    </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
         <v>122</v>
@@ -17793,14 +20705,13 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="26"/>
       <c r="AG82" s="2"/>
-      <c r="AH82" s="7"/>
+      <c r="AH82" s="179"/>
       <c r="AI82" s="7"/>
       <c r="AJ82" s="7"/>
       <c r="AK82" s="2"/>
       <c r="AL82" s="2"/>
-      <c r="AM82" s="7"/>
-    </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
         <v>124</v>
@@ -17862,14 +20773,13 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="26"/>
       <c r="AG83" s="2"/>
-      <c r="AH83" s="7"/>
+      <c r="AH83" s="179"/>
       <c r="AI83" s="7"/>
       <c r="AJ83" s="7"/>
       <c r="AK83" s="2"/>
       <c r="AL83" s="2"/>
-      <c r="AM83" s="7"/>
-    </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
         <v>125</v>
@@ -17930,14 +20840,13 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="26"/>
       <c r="AG84" s="2"/>
-      <c r="AH84" s="7"/>
+      <c r="AH84" s="179"/>
       <c r="AI84" s="7"/>
       <c r="AJ84" s="7"/>
       <c r="AK84" s="2"/>
       <c r="AL84" s="2"/>
-      <c r="AM84" s="7"/>
-    </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
         <v>127</v>
@@ -17998,14 +20907,13 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="26"/>
       <c r="AG85" s="2"/>
-      <c r="AH85" s="7"/>
+      <c r="AH85" s="179"/>
       <c r="AI85" s="7"/>
       <c r="AJ85" s="7"/>
       <c r="AK85" s="2"/>
       <c r="AL85" s="2"/>
-      <c r="AM85" s="7"/>
-    </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
         <v>129</v>
@@ -18066,14 +20974,13 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="26"/>
       <c r="AG86" s="2"/>
-      <c r="AH86" s="7"/>
+      <c r="AH86" s="179"/>
       <c r="AI86" s="7"/>
       <c r="AJ86" s="7"/>
       <c r="AK86" s="2"/>
       <c r="AL86" s="2"/>
-      <c r="AM86" s="7"/>
-    </row>
-    <row r="87" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
         <v>130</v>
@@ -18135,14 +21042,13 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="26"/>
       <c r="AG87" s="2"/>
-      <c r="AH87" s="7"/>
+      <c r="AH87" s="179"/>
       <c r="AI87" s="7"/>
       <c r="AJ87" s="7"/>
       <c r="AK87" s="2"/>
       <c r="AL87" s="2"/>
-      <c r="AM87" s="7"/>
-    </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
         <v>131</v>
@@ -18204,14 +21110,13 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="26"/>
       <c r="AG88" s="2"/>
-      <c r="AH88" s="7"/>
+      <c r="AH88" s="179"/>
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7"/>
       <c r="AK88" s="2"/>
       <c r="AL88" s="2"/>
-      <c r="AM88" s="7"/>
-    </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
         <v>133</v>
@@ -18273,14 +21178,13 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="26"/>
       <c r="AG89" s="2"/>
-      <c r="AH89" s="7"/>
+      <c r="AH89" s="179"/>
       <c r="AI89" s="7"/>
       <c r="AJ89" s="7"/>
       <c r="AK89" s="2"/>
       <c r="AL89" s="2"/>
-      <c r="AM89" s="7"/>
-    </row>
-    <row r="90" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
         <v>134</v>
@@ -18358,14 +21262,13 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="26"/>
       <c r="AG90" s="2"/>
-      <c r="AH90" s="7"/>
+      <c r="AH90" s="179"/>
       <c r="AI90" s="7"/>
       <c r="AJ90" s="7"/>
       <c r="AK90" s="2"/>
       <c r="AL90" s="2"/>
-      <c r="AM90" s="7"/>
-    </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
         <v>136</v>
@@ -18426,14 +21329,13 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="26"/>
       <c r="AG91" s="2"/>
-      <c r="AH91" s="7"/>
+      <c r="AH91" s="179"/>
       <c r="AI91" s="7"/>
       <c r="AJ91" s="7"/>
       <c r="AK91" s="2"/>
       <c r="AL91" s="2"/>
-      <c r="AM91" s="7"/>
-    </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
         <v>137</v>
@@ -18494,14 +21396,13 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="26"/>
       <c r="AG92" s="2"/>
-      <c r="AH92" s="7"/>
+      <c r="AH92" s="179"/>
       <c r="AI92" s="7"/>
       <c r="AJ92" s="7"/>
       <c r="AK92" s="2"/>
       <c r="AL92" s="2"/>
-      <c r="AM92" s="7"/>
-    </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>139</v>
@@ -18563,14 +21464,13 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="26"/>
       <c r="AG93" s="2"/>
-      <c r="AH93" s="7"/>
+      <c r="AH93" s="179"/>
       <c r="AI93" s="7"/>
       <c r="AJ93" s="7"/>
       <c r="AK93" s="2"/>
       <c r="AL93" s="2"/>
-      <c r="AM93" s="7"/>
-    </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
         <v>141</v>
@@ -18631,14 +21531,13 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="26"/>
       <c r="AG94" s="2"/>
-      <c r="AH94" s="7"/>
+      <c r="AH94" s="179"/>
       <c r="AI94" s="7"/>
       <c r="AJ94" s="7"/>
       <c r="AK94" s="2"/>
       <c r="AL94" s="2"/>
-      <c r="AM94" s="7"/>
-    </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>143</v>
@@ -18715,14 +21614,13 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="26"/>
       <c r="AG95" s="2"/>
-      <c r="AH95" s="7"/>
+      <c r="AH95" s="179"/>
       <c r="AI95" s="7"/>
       <c r="AJ95" s="7"/>
       <c r="AK95" s="2"/>
       <c r="AL95" s="2"/>
-      <c r="AM95" s="7"/>
-    </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
         <v>144</v>
@@ -18783,14 +21681,13 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="26"/>
       <c r="AG96" s="2"/>
-      <c r="AH96" s="7"/>
+      <c r="AH96" s="179"/>
       <c r="AI96" s="7"/>
       <c r="AJ96" s="7"/>
       <c r="AK96" s="2"/>
       <c r="AL96" s="2"/>
-      <c r="AM96" s="7"/>
-    </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
         <v>146</v>
@@ -18851,14 +21748,13 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="26"/>
       <c r="AG97" s="2"/>
-      <c r="AH97" s="7"/>
+      <c r="AH97" s="179"/>
       <c r="AI97" s="7"/>
       <c r="AJ97" s="7"/>
       <c r="AK97" s="2"/>
       <c r="AL97" s="2"/>
-      <c r="AM97" s="7"/>
-    </row>
-    <row r="98" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
         <v>147</v>
@@ -18920,14 +21816,13 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="26"/>
       <c r="AG98" s="2"/>
-      <c r="AH98" s="7"/>
+      <c r="AH98" s="179"/>
       <c r="AI98" s="7"/>
       <c r="AJ98" s="7"/>
       <c r="AK98" s="2"/>
       <c r="AL98" s="2"/>
-      <c r="AM98" s="7"/>
-    </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
         <v>150</v>
@@ -18989,14 +21884,13 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="26"/>
       <c r="AG99" s="2"/>
-      <c r="AH99" s="7"/>
+      <c r="AH99" s="179"/>
       <c r="AI99" s="7"/>
       <c r="AJ99" s="7"/>
       <c r="AK99" s="2"/>
       <c r="AL99" s="2"/>
-      <c r="AM99" s="7"/>
-    </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>148</v>
@@ -19057,14 +21951,13 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="26"/>
       <c r="AG100" s="2"/>
-      <c r="AH100" s="7"/>
+      <c r="AH100" s="179"/>
       <c r="AI100" s="7"/>
       <c r="AJ100" s="7"/>
       <c r="AK100" s="2"/>
       <c r="AL100" s="2"/>
-      <c r="AM100" s="7"/>
-    </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
         <v>151</v>
@@ -19126,14 +22019,13 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="26"/>
       <c r="AG101" s="2"/>
-      <c r="AH101" s="7"/>
+      <c r="AH101" s="179"/>
       <c r="AI101" s="7"/>
       <c r="AJ101" s="7"/>
       <c r="AK101" s="2"/>
       <c r="AL101" s="2"/>
-      <c r="AM101" s="7"/>
-    </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
         <v>152</v>
@@ -19195,14 +22087,13 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="26"/>
       <c r="AG102" s="2"/>
-      <c r="AH102" s="7"/>
+      <c r="AH102" s="179"/>
       <c r="AI102" s="7"/>
       <c r="AJ102" s="7"/>
       <c r="AK102" s="2"/>
       <c r="AL102" s="2"/>
-      <c r="AM102" s="7"/>
-    </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
         <v>153</v>
@@ -19263,14 +22154,13 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="26"/>
       <c r="AG103" s="2"/>
-      <c r="AH103" s="7"/>
+      <c r="AH103" s="179"/>
       <c r="AI103" s="7"/>
       <c r="AJ103" s="7"/>
       <c r="AK103" s="2"/>
       <c r="AL103" s="2"/>
-      <c r="AM103" s="7"/>
-    </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
         <v>155</v>
@@ -19347,14 +22237,13 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="26"/>
       <c r="AG104" s="2"/>
-      <c r="AH104" s="7"/>
+      <c r="AH104" s="179"/>
       <c r="AI104" s="7"/>
       <c r="AJ104" s="7"/>
       <c r="AK104" s="2"/>
       <c r="AL104" s="2"/>
-      <c r="AM104" s="7"/>
-    </row>
-    <row r="105" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
         <v>157</v>
@@ -19431,14 +22320,13 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="26"/>
       <c r="AG105" s="2"/>
-      <c r="AH105" s="7"/>
+      <c r="AH105" s="179"/>
       <c r="AI105" s="7"/>
       <c r="AJ105" s="7"/>
       <c r="AK105" s="2"/>
       <c r="AL105" s="2"/>
-      <c r="AM105" s="7"/>
-    </row>
-    <row r="106" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
         <v>159</v>
@@ -19500,14 +22388,13 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="26"/>
       <c r="AG106" s="2"/>
-      <c r="AH106" s="7"/>
+      <c r="AH106" s="179"/>
       <c r="AI106" s="7"/>
       <c r="AJ106" s="7"/>
       <c r="AK106" s="2"/>
       <c r="AL106" s="2"/>
-      <c r="AM106" s="7"/>
-    </row>
-    <row r="107" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
         <v>160</v>
@@ -19569,14 +22456,13 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="26"/>
       <c r="AG107" s="2"/>
-      <c r="AH107" s="7"/>
+      <c r="AH107" s="179"/>
       <c r="AI107" s="7"/>
       <c r="AJ107" s="7"/>
       <c r="AK107" s="2"/>
       <c r="AL107" s="2"/>
-      <c r="AM107" s="7"/>
-    </row>
-    <row r="108" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
         <v>162</v>
@@ -19638,14 +22524,13 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="26"/>
       <c r="AG108" s="2"/>
-      <c r="AH108" s="7"/>
+      <c r="AH108" s="179"/>
       <c r="AI108" s="7"/>
       <c r="AJ108" s="7"/>
       <c r="AK108" s="2"/>
       <c r="AL108" s="2"/>
-      <c r="AM108" s="7"/>
-    </row>
-    <row r="109" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
         <v>163</v>
@@ -19699,22 +22584,21 @@
       <c r="Y109" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="Z109" s="2" t="s">
-        <v>304</v>
+      <c r="Z109" s="2">
+        <v>930</v>
       </c>
       <c r="AA109" s="2"/>
       <c r="AD109" s="18"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="26"/>
       <c r="AG109" s="2"/>
-      <c r="AH109" s="7"/>
+      <c r="AH109" s="179"/>
       <c r="AI109" s="7"/>
       <c r="AJ109" s="7"/>
       <c r="AK109" s="2"/>
       <c r="AL109" s="2"/>
-      <c r="AM109" s="7"/>
-    </row>
-    <row r="110" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
         <v>164</v>
@@ -19776,14 +22660,13 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="26"/>
       <c r="AG110" s="2"/>
-      <c r="AH110" s="7"/>
+      <c r="AH110" s="179"/>
       <c r="AI110" s="7"/>
       <c r="AJ110" s="7"/>
       <c r="AK110" s="2"/>
       <c r="AL110" s="2"/>
-      <c r="AM110" s="7"/>
-    </row>
-    <row r="111" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
         <v>166</v>
@@ -19844,14 +22727,13 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="26"/>
       <c r="AG111" s="2"/>
-      <c r="AH111" s="7"/>
+      <c r="AH111" s="179"/>
       <c r="AI111" s="7"/>
       <c r="AJ111" s="7"/>
       <c r="AK111" s="2"/>
       <c r="AL111" s="2"/>
-      <c r="AM111" s="7"/>
-    </row>
-    <row r="112" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
         <v>167</v>
@@ -19913,14 +22795,13 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="26"/>
       <c r="AG112" s="2"/>
-      <c r="AH112" s="7"/>
+      <c r="AH112" s="179"/>
       <c r="AI112" s="7"/>
       <c r="AJ112" s="7"/>
       <c r="AK112" s="2"/>
       <c r="AL112" s="2"/>
-      <c r="AM112" s="7"/>
-    </row>
-    <row r="113" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
         <v>169</v>
@@ -19982,14 +22863,13 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="26"/>
       <c r="AG113" s="2"/>
-      <c r="AH113" s="7"/>
+      <c r="AH113" s="179"/>
       <c r="AI113" s="7"/>
       <c r="AJ113" s="7"/>
       <c r="AK113" s="2"/>
       <c r="AL113" s="2"/>
-      <c r="AM113" s="7"/>
-    </row>
-    <row r="114" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
         <v>171</v>
@@ -20051,14 +22931,13 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="26"/>
       <c r="AG114" s="2"/>
-      <c r="AH114" s="7"/>
+      <c r="AH114" s="179"/>
       <c r="AI114" s="7"/>
       <c r="AJ114" s="7"/>
       <c r="AK114" s="2"/>
       <c r="AL114" s="2"/>
-      <c r="AM114" s="7"/>
-    </row>
-    <row r="115" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
         <v>173</v>
@@ -20119,14 +22998,13 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="26"/>
       <c r="AG115" s="2"/>
-      <c r="AH115" s="7"/>
+      <c r="AH115" s="179"/>
       <c r="AI115" s="7"/>
       <c r="AJ115" s="7"/>
       <c r="AK115" s="2"/>
       <c r="AL115" s="2"/>
-      <c r="AM115" s="7"/>
-    </row>
-    <row r="116" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
         <v>174</v>
@@ -20188,14 +23066,13 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="26"/>
       <c r="AG116" s="2"/>
-      <c r="AH116" s="7"/>
+      <c r="AH116" s="179"/>
       <c r="AI116" s="7"/>
       <c r="AJ116" s="7"/>
       <c r="AK116" s="2"/>
       <c r="AL116" s="2"/>
-      <c r="AM116" s="7"/>
-    </row>
-    <row r="117" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
         <v>176</v>
@@ -20272,14 +23149,13 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="26"/>
       <c r="AG117" s="2"/>
-      <c r="AH117" s="7"/>
+      <c r="AH117" s="179"/>
       <c r="AI117" s="7"/>
       <c r="AJ117" s="7"/>
       <c r="AK117" s="2"/>
       <c r="AL117" s="2"/>
-      <c r="AM117" s="7"/>
-    </row>
-    <row r="118" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
         <v>177</v>
@@ -20341,14 +23217,13 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="26"/>
       <c r="AG118" s="2"/>
-      <c r="AH118" s="7"/>
+      <c r="AH118" s="179"/>
       <c r="AI118" s="7"/>
       <c r="AJ118" s="7"/>
       <c r="AK118" s="2"/>
       <c r="AL118" s="2"/>
-      <c r="AM118" s="7"/>
-    </row>
-    <row r="119" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
         <v>179</v>
@@ -20409,14 +23284,13 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="26"/>
       <c r="AG119" s="2"/>
-      <c r="AH119" s="7"/>
+      <c r="AH119" s="179"/>
       <c r="AI119" s="7"/>
       <c r="AJ119" s="7"/>
       <c r="AK119" s="2"/>
       <c r="AL119" s="2"/>
-      <c r="AM119" s="7"/>
-    </row>
-    <row r="120" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
         <v>180</v>
@@ -20478,14 +23352,13 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="26"/>
       <c r="AG120" s="2"/>
-      <c r="AH120" s="7"/>
+      <c r="AH120" s="179"/>
       <c r="AI120" s="7"/>
       <c r="AJ120" s="7"/>
       <c r="AK120" s="2"/>
       <c r="AL120" s="2"/>
-      <c r="AM120" s="7"/>
-    </row>
-    <row r="121" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
         <v>182</v>
@@ -20547,14 +23420,13 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="26"/>
       <c r="AG121" s="2"/>
-      <c r="AH121" s="7"/>
+      <c r="AH121" s="179"/>
       <c r="AI121" s="7"/>
       <c r="AJ121" s="7"/>
       <c r="AK121" s="2"/>
       <c r="AL121" s="2"/>
-      <c r="AM121" s="7"/>
-    </row>
-    <row r="122" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
         <v>184</v>
@@ -20615,14 +23487,13 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="26"/>
       <c r="AG122" s="2"/>
-      <c r="AH122" s="7"/>
+      <c r="AH122" s="179"/>
       <c r="AI122" s="7"/>
       <c r="AJ122" s="7"/>
       <c r="AK122" s="2"/>
       <c r="AL122" s="2"/>
-      <c r="AM122" s="7"/>
-    </row>
-    <row r="123" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
         <v>185</v>
@@ -20683,14 +23554,13 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="26"/>
       <c r="AG123" s="2"/>
-      <c r="AH123" s="7"/>
+      <c r="AH123" s="179"/>
       <c r="AI123" s="7"/>
       <c r="AJ123" s="7"/>
       <c r="AK123" s="2"/>
       <c r="AL123" s="2"/>
-      <c r="AM123" s="7"/>
-    </row>
-    <row r="124" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
         <v>187</v>
@@ -20751,14 +23621,13 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="26"/>
       <c r="AG124" s="2"/>
-      <c r="AH124" s="7"/>
+      <c r="AH124" s="179"/>
       <c r="AI124" s="7"/>
       <c r="AJ124" s="7"/>
       <c r="AK124" s="2"/>
       <c r="AL124" s="2"/>
-      <c r="AM124" s="7"/>
-    </row>
-    <row r="125" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
         <v>188</v>
@@ -20825,9 +23694,8 @@
       <c r="AJ125" s="7"/>
       <c r="AK125" s="2"/>
       <c r="AL125" s="2"/>
-      <c r="AM125" s="7"/>
-    </row>
-    <row r="126" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
         <v>190</v>
@@ -20893,9 +23761,8 @@
       <c r="AJ126" s="7"/>
       <c r="AK126" s="2"/>
       <c r="AL126" s="2"/>
-      <c r="AM126" s="7"/>
-    </row>
-    <row r="127" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
         <v>191</v>
@@ -20961,9 +23828,8 @@
       <c r="AJ127" s="7"/>
       <c r="AK127" s="2"/>
       <c r="AL127" s="2"/>
-      <c r="AM127" s="7"/>
-    </row>
-    <row r="128" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
         <v>193</v>
@@ -21029,9 +23895,8 @@
       <c r="AJ128" s="7"/>
       <c r="AK128" s="2"/>
       <c r="AL128" s="2"/>
-      <c r="AM128" s="7"/>
-    </row>
-    <row r="129" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
         <v>197</v>
@@ -21098,9 +23963,8 @@
       <c r="AJ129" s="7"/>
       <c r="AK129" s="2"/>
       <c r="AL129" s="2"/>
-      <c r="AM129" s="7"/>
-    </row>
-    <row r="130" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
         <v>195</v>
@@ -21166,9 +24030,8 @@
       <c r="AJ130" s="7"/>
       <c r="AK130" s="2"/>
       <c r="AL130" s="2"/>
-      <c r="AM130" s="7"/>
-    </row>
-    <row r="131" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
         <v>199</v>
@@ -21235,9 +24098,8 @@
       <c r="AJ131" s="7"/>
       <c r="AK131" s="2"/>
       <c r="AL131" s="2"/>
-      <c r="AM131" s="7"/>
-    </row>
-    <row r="132" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
         <v>194</v>
@@ -21303,9 +24165,8 @@
       <c r="AJ132" s="7"/>
       <c r="AK132" s="2"/>
       <c r="AL132" s="2"/>
-      <c r="AM132" s="7"/>
-    </row>
-    <row r="133" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
         <v>198</v>
@@ -21372,9 +24233,8 @@
       <c r="AJ133" s="7"/>
       <c r="AK133" s="2"/>
       <c r="AL133" s="2"/>
-      <c r="AM133" s="7"/>
-    </row>
-    <row r="134" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
         <v>200</v>
@@ -21457,9 +24317,8 @@
       <c r="AJ134" s="7"/>
       <c r="AK134" s="2"/>
       <c r="AL134" s="2"/>
-      <c r="AM134" s="7"/>
-    </row>
-    <row r="135" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
         <v>201</v>
@@ -21526,9 +24385,8 @@
       <c r="AJ135" s="7"/>
       <c r="AK135" s="2"/>
       <c r="AL135" s="2"/>
-      <c r="AM135" s="7"/>
-    </row>
-    <row r="136" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
         <v>203</v>
@@ -21594,9 +24452,8 @@
       <c r="AJ136" s="7"/>
       <c r="AK136" s="2"/>
       <c r="AL136" s="2"/>
-      <c r="AM136" s="7"/>
-    </row>
-    <row r="137" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
         <v>204</v>
@@ -21662,9 +24519,8 @@
       <c r="AJ137" s="7"/>
       <c r="AK137" s="2"/>
       <c r="AL137" s="2"/>
-      <c r="AM137" s="7"/>
-    </row>
-    <row r="138" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
         <v>205</v>
@@ -21731,9 +24587,8 @@
       <c r="AJ138" s="7"/>
       <c r="AK138" s="2"/>
       <c r="AL138" s="2"/>
-      <c r="AM138" s="7"/>
-    </row>
-    <row r="139" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
         <v>207</v>
@@ -21800,9 +24655,8 @@
       <c r="AJ139" s="7"/>
       <c r="AK139" s="2"/>
       <c r="AL139" s="2"/>
-      <c r="AM139" s="7"/>
-    </row>
-    <row r="140" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
         <v>208</v>
@@ -21869,9 +24723,8 @@
       <c r="AJ140" s="7"/>
       <c r="AK140" s="2"/>
       <c r="AL140" s="2"/>
-      <c r="AM140" s="7"/>
-    </row>
-    <row r="141" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
         <v>210</v>
@@ -21938,9 +24791,8 @@
       <c r="AJ141" s="7"/>
       <c r="AK141" s="2"/>
       <c r="AL141" s="2"/>
-      <c r="AM141" s="7"/>
-    </row>
-    <row r="142" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
         <v>211</v>
@@ -22023,9 +24875,8 @@
       <c r="AJ142" s="7"/>
       <c r="AK142" s="2"/>
       <c r="AL142" s="2"/>
-      <c r="AM142" s="7"/>
-    </row>
-    <row r="143" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
         <v>213</v>
@@ -22092,9 +24943,8 @@
       <c r="AJ143" s="7"/>
       <c r="AK143" s="2"/>
       <c r="AL143" s="2"/>
-      <c r="AM143" s="7"/>
-    </row>
-    <row r="144" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
         <v>214</v>
@@ -22161,9 +25011,8 @@
       <c r="AJ144" s="7"/>
       <c r="AK144" s="2"/>
       <c r="AL144" s="2"/>
-      <c r="AM144" s="7"/>
-    </row>
-    <row r="145" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
         <v>215</v>
@@ -22229,9 +25078,8 @@
       <c r="AJ145" s="7"/>
       <c r="AK145" s="2"/>
       <c r="AL145" s="2"/>
-      <c r="AM145" s="7"/>
-    </row>
-    <row r="146" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
         <v>216</v>
@@ -22297,9 +25145,8 @@
       <c r="AJ146" s="7"/>
       <c r="AK146" s="2"/>
       <c r="AL146" s="2"/>
-      <c r="AM146" s="7"/>
-    </row>
-    <row r="147" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
         <v>217</v>
@@ -22365,9 +25212,8 @@
       <c r="AJ147" s="7"/>
       <c r="AK147" s="2"/>
       <c r="AL147" s="2"/>
-      <c r="AM147" s="7"/>
-    </row>
-    <row r="148" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
         <v>218</v>
@@ -22434,9 +25280,8 @@
       <c r="AJ148" s="7"/>
       <c r="AK148" s="2"/>
       <c r="AL148" s="2"/>
-      <c r="AM148" s="7"/>
-    </row>
-    <row r="149" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
         <v>220</v>
@@ -22503,9 +25348,8 @@
       <c r="AJ149" s="7"/>
       <c r="AK149" s="2"/>
       <c r="AL149" s="2"/>
-      <c r="AM149" s="7"/>
-    </row>
-    <row r="150" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
         <v>221</v>
@@ -22588,9 +25432,8 @@
       <c r="AJ150" s="7"/>
       <c r="AK150" s="2"/>
       <c r="AL150" s="2"/>
-      <c r="AM150" s="7"/>
-    </row>
-    <row r="151" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
         <v>223</v>
@@ -22656,9 +25499,8 @@
       <c r="AJ151" s="7"/>
       <c r="AK151" s="2"/>
       <c r="AL151" s="2"/>
-      <c r="AM151" s="7"/>
-    </row>
-    <row r="152" spans="2:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
         <v>225</v>
@@ -22735,7 +25577,7 @@
       <c r="AD152" s="18"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
         <v>227</v>
@@ -22795,7 +25637,7 @@
       <c r="AD153" s="18"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
         <v>229</v>
@@ -22872,7 +25714,7 @@
       <c r="AD154" s="18"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="7"/>
@@ -22900,717 +25742,717 @@
       <c r="AD155" s="18"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:38" x14ac:dyDescent="0.25">
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="161" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="162" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="163" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="164" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="165" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="166" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="167" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="168" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="169" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="170" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="171" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="172" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="173" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="174" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="175" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="176" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="177" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="178" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="179" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="180" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="181" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="182" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="183" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="184" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="185" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="186" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="187" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="188" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="189" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="190" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="191" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="192" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="193" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="194" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="195" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="196" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="197" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="198" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="199" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="200" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="201" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="202" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="203" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="204" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="205" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="206" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="207" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="208" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="209" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="210" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="211" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="212" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="213" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="214" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="215" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="216" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="217" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="218" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="219" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="220" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="221" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="222" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="223" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="224" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="225" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="226" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="227" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="228" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="229" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="230" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="231" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="232" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="233" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="234" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="235" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="236" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="237" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="238" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="239" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="240" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="241" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="242" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="243" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="244" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="245" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="246" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="247" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="248" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="249" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="250" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="251" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="252" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="253" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="254" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="255" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="256" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="257" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="258" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="259" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="260" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="261" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="262" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="263" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="264" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="265" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="266" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="267" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="268" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="269" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="270" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="271" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="272" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="273" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="274" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="275" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="276" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="277" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="278" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="279" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="280" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="281" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="282" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="283" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="284" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="285" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="286" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="287" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="288" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="289" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="290" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="291" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="292" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="293" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="294" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="295" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="296" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="297" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="26:32" x14ac:dyDescent="0.2">
+    <row r="298" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
       <c r="AF298" s="2"/>
@@ -23629,8 +26471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A2E463-6762-41F6-AD47-79665BB1A48D}">
   <dimension ref="A1:X298"/>
   <sheetViews>
-    <sheetView topLeftCell="I118" workbookViewId="0">
-      <selection activeCell="S117" sqref="S117"/>
+    <sheetView topLeftCell="C76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23866,8 +26708,12 @@
       <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>635</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -29224,8 +32070,12 @@
       <c r="J109" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="K109" s="2">
+        <v>930</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>635</v>
+      </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -40966,7 +43816,7 @@
   <dimension ref="A1:O298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48991,37 +51841,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="163" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="165" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="149">
+      <c r="C2" s="167">
         <v>3.3904109706261301E-2</v>
       </c>
       <c r="D2" s="127">
         <v>3.0308439874054298</v>
       </c>
-      <c r="E2" s="158" t="s">
+      <c r="E2" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="172" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="150"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="129">
         <v>3.3239820074054398</v>
       </c>
-      <c r="E3" s="159"/>
-      <c r="F3" s="141"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="172"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="163" t="s">
         <v>468</v>
       </c>
       <c r="B4" s="125">
@@ -49033,15 +51883,15 @@
       <c r="D4" s="130">
         <v>1.91862856740539</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="172" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="131" t="s">
         <v>576</v>
       </c>
@@ -49051,11 +51901,11 @@
       <c r="D5" s="133">
         <v>2.5098057874054498</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="141"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="172"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="111" t="s">
         <v>577</v>
       </c>
@@ -49065,11 +51915,11 @@
       <c r="D6" s="129">
         <v>-1.12009968259455</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="F6" s="141"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="172"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="170" t="s">
         <v>469</v>
       </c>
       <c r="B7" s="54" t="s">
@@ -49081,13 +51931,13 @@
       <c r="D7" s="56">
         <v>2.3577677274054101</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="148" t="s">
         <v>601</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="172"/>
     </row>
     <row r="8" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
+      <c r="A8" s="171"/>
       <c r="B8" s="57" t="s">
         <v>579</v>
       </c>
@@ -49097,11 +51947,11 @@
       <c r="D8" s="59">
         <v>-3.8362542594540999E-2</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="141"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="172"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="141" t="s">
         <v>470</v>
       </c>
       <c r="B9" s="125">
@@ -49113,13 +51963,13 @@
       <c r="D9" s="127">
         <v>0.57635066740544905</v>
       </c>
-      <c r="E9" s="163" t="s">
+      <c r="E9" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="172"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="168"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="48" t="s">
         <v>576</v>
       </c>
@@ -49129,11 +51979,11 @@
       <c r="D10" s="62">
         <v>1.83464093740545</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="141"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="172"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="155"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="63" t="s">
         <v>577</v>
       </c>
@@ -49143,11 +51993,11 @@
       <c r="D11" s="65">
         <v>-0.54624473259457296</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="141"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="156" t="s">
         <v>471</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -49159,13 +52009,13 @@
       <c r="D12" s="67">
         <v>4.0221599874054101</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F12" s="142"/>
+      <c r="F12" s="173"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="170"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="71" t="s">
         <v>581</v>
       </c>
@@ -49175,11 +52025,11 @@
       <c r="D13" s="72">
         <v>-3.2670075425946798</v>
       </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="142"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="173"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="158" t="s">
         <v>472</v>
       </c>
       <c r="B14" s="114" t="s">
@@ -49191,13 +52041,13 @@
       <c r="D14" s="116">
         <v>1.6800129474054299</v>
       </c>
-      <c r="E14" s="163" t="s">
+      <c r="E14" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="142"/>
+      <c r="F14" s="173"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="172"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="111" t="s">
         <v>583</v>
       </c>
@@ -49207,11 +52057,11 @@
       <c r="D15" s="113">
         <v>1.8519125174054201</v>
       </c>
-      <c r="E15" s="165"/>
-      <c r="F15" s="142"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="173"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="143" t="s">
         <v>473</v>
       </c>
       <c r="B16" s="54">
@@ -49223,13 +52073,13 @@
       <c r="D16" s="56">
         <v>3.6845018674054302</v>
       </c>
-      <c r="E16" s="163" t="s">
+      <c r="E16" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="F16" s="141"/>
+      <c r="F16" s="172"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="173"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="48" t="s">
         <v>576</v>
       </c>
@@ -49239,11 +52089,11 @@
       <c r="D17" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="141"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="172"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="73" t="s">
         <v>577</v>
       </c>
@@ -49253,8 +52103,8 @@
       <c r="D18" s="75">
         <v>2.5016611374053901</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="141"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="172"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120" t="s">
@@ -49277,7 +52127,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="161" t="s">
         <v>475</v>
       </c>
       <c r="B20" s="54">
@@ -49289,13 +52139,13 @@
       <c r="D20" s="56">
         <v>2.5408861074054099</v>
       </c>
-      <c r="E20" s="166" t="s">
+      <c r="E20" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="172"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="117">
         <v>111</v>
       </c>
@@ -49305,8 +52155,8 @@
       <c r="D21" s="119">
         <v>2.1188442974054098</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="141"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="172"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
@@ -49327,7 +52177,7 @@
       <c r="F22" s="98"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="141" t="s">
         <v>477</v>
       </c>
       <c r="B23" s="81" t="s">
@@ -49339,13 +52189,13 @@
       <c r="D23" s="61">
         <v>1.51702027740543</v>
       </c>
-      <c r="E23" s="166" t="s">
+      <c r="E23" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="142"/>
+      <c r="F23" s="173"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="155"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="68" t="s">
         <v>592</v>
       </c>
@@ -49355,8 +52205,8 @@
       <c r="D24" s="70">
         <v>2.6014975474054101</v>
       </c>
-      <c r="E24" s="167"/>
-      <c r="F24" s="142"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="173"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="90" t="s">
@@ -49623,7 +52473,7 @@
       <c r="F38" s="98"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="143" t="s">
         <v>492</v>
       </c>
       <c r="B39" s="66" t="s">
@@ -49635,13 +52485,13 @@
       <c r="D39" s="67">
         <v>5.2656480574054196</v>
       </c>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="F39" s="142"/>
+      <c r="F39" s="173"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="157"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="96" t="s">
         <v>589</v>
       </c>
@@ -49651,8 +52501,8 @@
       <c r="D40" s="107">
         <v>2.3158929874053902</v>
       </c>
-      <c r="E40" s="167"/>
-      <c r="F40" s="142"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="173"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76" t="s">
@@ -49674,6 +52524,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="E2:E3"/>
@@ -49690,22 +52556,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -49717,7 +52567,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F26"/>
+      <selection activeCell="B1" sqref="B1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -50315,7 +53165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72E40A6-F72F-48F4-96BA-3A88FF96F5FE}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
